--- a/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/additive/ranking_test1/results.xlsx
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.001</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.329</v>
+        <v>25.004</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>31.62076750137073</v>
+        <v>26.66611881156826</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>31.62077365824667</v>
+        <v>27.14405818552666</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31.62077511234283</v>
+        <v>27.35113161752657</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>31.62054032838934</v>
+        <v>25.6605024203169</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>31.62054121210335</v>
+        <v>25.83539413223808</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>31.62054386993791</v>
+        <v>26.12265547991001</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>31.62085046152653</v>
+        <v>25.96550276067532</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>31.62085127945766</v>
+        <v>26.12763439682796</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>31.62085374536485</v>
+        <v>26.42501243125292</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>31.61968672616401</v>
+        <v>25.91394472189132</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31.61969077487441</v>
+        <v>26.18725161321719</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>31.61969254968343</v>
+        <v>26.36815014070898</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>31.61959080680511</v>
+        <v>26.02987718828305</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>31.61959892099747</v>
+        <v>26.5205495941766</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>31.6196014306281</v>
+        <v>26.79376157820823</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>31.61946079859528</v>
+        <v>25.30339127617884</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>31.61947814256092</v>
+        <v>26.48737845197885</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.61948256914383</v>
+        <v>26.95878197634483</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>31.61915642313222</v>
+        <v>23.21051646576137</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>31.61916457277204</v>
+        <v>23.9714501227838</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>31.61916841716753</v>
+        <v>24.39077593113434</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>31.61962198109179</v>
+        <v>23.6223443501854</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>31.6196281278219</v>
+        <v>24.31644928760252</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>31.62059864886715</v>
+        <v>24.24015222558861</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>31.62061713467572</v>
+        <v>25.8922774014552</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>31.62061727443739</v>
+        <v>26.03420835476312</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>31.62039431641639</v>
+        <v>25.29960062136312</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>31.62039968625625</v>
+        <v>26.0516961455593</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>31.62039975766131</v>
+        <v>26.21976936368869</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>31.62071200969833</v>
+        <v>25.24147332727632</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>31.62071699743634</v>
+        <v>25.99157773682482</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>31.62071703063773</v>
+        <v>26.17535549925115</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>31.61950009873845</v>
+        <v>26.40274255464538</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>31.61951386726236</v>
+        <v>27.22869546071427</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>31.61951401377478</v>
+        <v>27.30224672829758</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>31.6193736504199</v>
+        <v>26.72582308189288</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>31.61940059238086</v>
+        <v>28.14550746173491</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>31.61940060460532</v>
+        <v>28.24562898785901</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>31.6191724216643</v>
+        <v>25.91003538379533</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>31.61922620534956</v>
+        <v>29.19372603436561</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>31.61922755359695</v>
+        <v>29.8257719676469</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>31.61893468882303</v>
+        <v>28.32769693135079</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>31.61895851094155</v>
+        <v>30.36443356823689</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>31.61895755930652</v>
+        <v>30.78761778181286</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>31.61939370344406</v>
+        <v>27.90654142012948</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>31.61941290137793</v>
+        <v>29.86824923289849</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>31.62070885966087</v>
+        <v>23.57186388163347</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>31.62072685220154</v>
+        <v>25.22094061828684</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>31.6207270821319</v>
+        <v>25.39707535803705</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>31.62051154640149</v>
+        <v>24.68048132357369</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.62051727978985</v>
+        <v>25.44406705232918</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>31.62051755052469</v>
+        <v>25.64047891529321</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>31.6208160772997</v>
+        <v>24.66552771840736</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>31.62082150431292</v>
+        <v>25.42922498938322</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>31.62082170916002</v>
+        <v>25.64715472110327</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>31.61965564425813</v>
+        <v>25.74298730857184</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>31.61966892786394</v>
+        <v>26.57273856109999</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>31.6196692007138</v>
+        <v>26.65883308471594</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>31.6195350444866</v>
+        <v>26.08390555091881</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>31.61956075192544</v>
+        <v>27.50747911488308</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>31.61956094879736</v>
+        <v>27.62494551654542</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>31.61933381968065</v>
+        <v>24.85263926375593</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>31.6193846292933</v>
+        <v>28.10195791117168</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>31.619386280936</v>
+        <v>28.83712462507077</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>31.61910337984508</v>
+        <v>27.13631608225869</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>31.61912611467062</v>
+        <v>29.1799917295459</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>31.61912587165051</v>
+        <v>29.66135918301215</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>31.61954602813816</v>
+        <v>26.75247378251538</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>31.61956429495572</v>
+        <v>28.71995063908679</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>31.62127972472026</v>
+        <v>24.68218885829248</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>31.62128815458365</v>
+        <v>25.65531657922484</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>31.62128832760009</v>
+        <v>25.95619755883867</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>31.6211093179801</v>
+        <v>25.23352474998995</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>31.6211127223837</v>
+        <v>25.79747495833689</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>31.62111296386911</v>
+        <v>25.99472455504086</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>31.62134791001232</v>
+        <v>25.25108950305298</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>31.62135112141881</v>
+        <v>25.80198144212222</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>31.62135134527555</v>
+        <v>26.03036149201457</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>31.62044961991091</v>
+        <v>25.87285844096867</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>31.62045559323597</v>
+        <v>26.39604284759864</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>31.62045577494267</v>
+        <v>26.54450574190113</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>31.62036953064338</v>
+        <v>26.17579890533846</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>31.62038079347292</v>
+        <v>27.0496721384151</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>31.62038122064358</v>
+        <v>27.28777794764275</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>31.62026618766977</v>
+        <v>25.31354902481679</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>31.62028659418966</v>
+        <v>27.18266354885436</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>31.62028745625592</v>
+        <v>28.05570197869167</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>31.62004998736008</v>
+        <v>26.30674927773105</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>31.62006052224189</v>
+        <v>27.69864210430176</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>31.62006019624653</v>
+        <v>28.22976667429253</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>31.62040284109622</v>
+        <v>26.10862443661996</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>31.62041212604636</v>
+        <v>27.48181869210541</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>31.61963326090163</v>
+        <v>24.77646341891336</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>31.61786748161739</v>
+        <v>24.4218036594944</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>31.61788125942488</v>
+        <v>25.04073717962497</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>31.61788389557978</v>
+        <v>25.27819694187812</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>31.61770920724002</v>
+        <v>24.71638029839252</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>31.61773552893155</v>
+        <v>25.73442771002492</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>31.6177376369807</v>
+        <v>26.08553275879476</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>31.61907880316904</v>
+        <v>26.33883862634861</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>31.61910030898738</v>
+        <v>27.56647758679272</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>31.61910376218601</v>
+        <v>28.11787462382242</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>31.61874146802774</v>
+        <v>24.18925595735792</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>31.6187526944698</v>
+        <v>25.0058934612035</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>31.6187556677281</v>
+        <v>25.47060444694242</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>31.61925495593443</v>
+        <v>24.63324283885344</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>31.61926359928884</v>
+        <v>25.37881668556537</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>31.61926744781534</v>
+        <v>25.88394966847782</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>31.61732205452423</v>
+        <v>25.39067797142289</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>31.61733843375433</v>
+        <v>26.01712709662182</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>31.61734034030118</v>
+        <v>26.30514648922464</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>31.61714722807668</v>
+        <v>25.5829665733933</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>31.61717769750735</v>
+        <v>26.60144474549991</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>31.6171793947919</v>
+        <v>27.03915460819706</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>31.61941532663511</v>
+        <v>30.28513250231577</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>31.61762144845</v>
+        <v>31.52460776562389</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>31.6176536683884</v>
+        <v>33.02375457792355</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>31.61765185195391</v>
+        <v>33.40399232515404</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>31.61743422588302</v>
+        <v>31.85849784098352</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>31.61749489235642</v>
+        <v>34.26241756099397</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>31.61748862144539</v>
+        <v>34.89413843148096</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>31.61871637161851</v>
+        <v>29.42484705739058</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>31.61877596416028</v>
+        <v>32.8295069314791</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>31.61877740324303</v>
+        <v>33.41793044698953</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>31.61845291729896</v>
+        <v>32.95444033747459</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>31.61847961890257</v>
+        <v>35.05052611543904</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>31.61847787201414</v>
+        <v>35.46250110248621</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>31.61896294032605</v>
+        <v>32.2176387975948</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>31.61898400983659</v>
+        <v>34.22026190230092</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>31.61898500494424</v>
+        <v>34.6290915178317</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>31.61699494828348</v>
+        <v>36.62823915217565</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>31.61702825285485</v>
+        <v>38.13976791987075</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>31.61702610680085</v>
+        <v>38.46944550709117</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>31.61679032811388</v>
+        <v>36.90298039100249</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>31.61685325970229</v>
+        <v>39.31749080420232</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>31.61684652727952</v>
+        <v>39.85474063842236</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>31.6195671644627</v>
+        <v>29.1982822935847</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>31.61784010174621</v>
+        <v>30.35700737790659</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>31.61787121128463</v>
+        <v>31.84766894406676</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>31.61786948469836</v>
+        <v>32.27172582579657</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>31.61766083049301</v>
+        <v>30.75149669586018</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>31.61771928781764</v>
+        <v>33.13653928405608</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>31.61771321677545</v>
+        <v>33.83979236703889</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>31.61890151078861</v>
+        <v>28.60158458719415</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>31.6189575439071</v>
+        <v>31.9650344879762</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>31.61895973234955</v>
+        <v>32.65604671464354</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>31.61864848959213</v>
+        <v>31.98624022185781</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>31.61867352440331</v>
+        <v>34.09098399797312</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>31.61867306326359</v>
+        <v>34.55575381052371</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>31.61913958666346</v>
+        <v>31.29332203245353</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>31.61915915448362</v>
+        <v>33.29940000960645</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>31.61916118308345</v>
+        <v>33.76816793097058</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>31.61724829537529</v>
+        <v>35.66293340700693</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>31.61728004088853</v>
+        <v>37.17225755400322</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>31.61727853079993</v>
+        <v>37.53961809878204</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>31.61705198207984</v>
+        <v>35.97535264648172</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>31.61711187576805</v>
+        <v>38.38262641996409</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>31.61710591091704</v>
+        <v>38.98058711778603</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.62041330177772</v>
+        <v>28.08223306114143</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>31.61904904060497</v>
+        <v>27.93388757704777</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>31.61906498228937</v>
+        <v>28.9163325559006</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>31.61906433040753</v>
+        <v>29.31252902372988</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>31.61892006633355</v>
+        <v>28.12572128926504</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>31.61895047222787</v>
+        <v>29.67932923089164</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>31.61894856424342</v>
+        <v>30.31805819015175</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>31.61998402559855</v>
+        <v>28.2513405417714</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>31.6200066476192</v>
+        <v>30.13507738221256</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>31.62000791189195</v>
+        <v>30.9982829676693</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>31.61975288030751</v>
+        <v>29.86716164879112</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>31.61976605674153</v>
+        <v>31.33052880728329</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>31.61976507196491</v>
+        <v>31.84700415431422</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>31.62013857162359</v>
+        <v>29.49745209259797</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>31.62014982664087</v>
+        <v>30.92199107825146</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>31.62015041350752</v>
+        <v>31.5112842896577</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>31.61865771249077</v>
+        <v>31.71609446179922</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>31.61867573584884</v>
+        <v>32.74488105198073</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>31.61867534632189</v>
+        <v>33.12680071794733</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>31.61851524158705</v>
+        <v>31.79125899833537</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>31.61854905997772</v>
+        <v>33.41567277106824</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>31.61854771508487</v>
+        <v>34.02984186273986</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>31.61997560243687</v>
+        <v>19.49789218943562</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>31.61998560873639</v>
+        <v>20.92192619207167</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>31.61998874626966</v>
+        <v>21.53829370983336</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>31.61965962768737</v>
+        <v>17.41684888070238</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>31.61966075102408</v>
+        <v>17.9709200037684</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>31.6196653678516</v>
+        <v>18.8054842981392</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>31.62008048056293</v>
+        <v>18.11764178272218</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>31.62008017674518</v>
+        <v>18.66600597623566</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>31.62008484006384</v>
+        <v>19.53698623365003</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>31.61851574796435</v>
+        <v>18.07161957445405</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>31.61852288500697</v>
+        <v>18.85684180420174</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>31.61852708741882</v>
+        <v>19.39478706000376</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>31.61839535442145</v>
+        <v>18.25326684110364</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>31.61840836869644</v>
+        <v>19.64809356723595</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>31.61841505754185</v>
+        <v>20.46565591161421</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>31.61828438402981</v>
+        <v>21.49029432696352</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>31.61831765251977</v>
+        <v>24.93949502274959</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>31.61832945787911</v>
+        <v>26.16421232788455</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>31.61786137472906</v>
+        <v>17.48530905497157</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>31.61787612557984</v>
+        <v>19.70940801283656</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>31.61788797205834</v>
+        <v>20.79497063101769</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>31.61848509691105</v>
+        <v>18.13020338876981</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>31.61849539237866</v>
+        <v>20.19435560805176</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>31.61973682734597</v>
+        <v>19.92974328466637</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>31.61976661525962</v>
+        <v>24.5671797859455</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>31.61976835542806</v>
+        <v>24.94743172501401</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>31.61948965246836</v>
+        <v>23.86830519830505</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>31.61949538203632</v>
+        <v>25.95922497328282</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>31.61949399971515</v>
+        <v>26.40812355958187</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>31.61991018742892</v>
+        <v>23.44381712787783</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>31.61991457312894</v>
+        <v>25.5588297031132</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>31.61991402980415</v>
+        <v>26.05177167273296</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>31.61831688549402</v>
+        <v>26.56992909218763</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>31.61833708595066</v>
+        <v>28.88456531758613</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>31.61833533415781</v>
+        <v>29.08385404923982</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>31.61816086496295</v>
+        <v>26.84203931913016</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>31.61820411191407</v>
+        <v>30.82435150504253</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>31.6182026750607</v>
+        <v>31.09743574163443</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>31.61815270581682</v>
+        <v>24.51829248216715</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>31.6182579769796</v>
+        <v>33.65138270291892</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>31.61826298319714</v>
+        <v>35.13991635432188</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>31.61792708243506</v>
+        <v>32.04616584468795</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>31.61797956501046</v>
+        <v>37.67190276475192</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>31.61797531728041</v>
+        <v>38.62804446061446</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>31.61852957786358</v>
+        <v>30.57247067500926</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>31.61760531192007</v>
+        <v>35.99460038810518</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>31.61990055899293</v>
+        <v>17.72605391078724</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>31.61992558900023</v>
+        <v>22.35376912564973</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>31.62000034528266</v>
+        <v>22.82776995733194</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>31.61966235974585</v>
+        <v>21.83285114804397</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>31.61966247422274</v>
+        <v>23.95686976990134</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>31.61963083796699</v>
+        <v>24.48531816974963</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>31.62006336884053</v>
+        <v>21.5317713290455</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>31.62006324779928</v>
+        <v>23.68520722687627</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>31.62009081949265</v>
+        <v>24.27405075991743</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>31.61853486572397</v>
+        <v>24.42877907537843</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>31.61854926946963</v>
+        <v>26.75379379954963</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>31.6185531274573</v>
+        <v>26.99055088741278</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>31.61838909139995</v>
+        <v>24.7725932427275</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>31.61842346987805</v>
+        <v>28.76496727416751</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>31.6188386801124</v>
+        <v>29.09099957801758</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>31.61834119097118</v>
+        <v>21.85466025804504</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>31.61843031492031</v>
+        <v>30.94175075433305</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>31.61865260549074</v>
+        <v>32.66397455388262</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>31.61811494604991</v>
+        <v>29.08375060607282</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>31.61814585548995</v>
+        <v>34.76159721718702</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>31.61801932948583</v>
+        <v>35.85121459570512</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>31.61864193246325</v>
+        <v>27.71401752787038</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>31.61776273202919</v>
+        <v>33.18280648127427</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>31.62074007129536</v>
+        <v>16.77575349898583</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>31.62075110265226</v>
+        <v>19.49113304416915</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>31.62077624858876</v>
+        <v>20.37653689256482</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>31.62052993544748</v>
+        <v>18.90899543831258</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>31.62053046594133</v>
+        <v>20.48014367837247</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>31.62051845281276</v>
+        <v>21.06904241276144</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>31.62083734657314</v>
+        <v>18.82975608377813</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>31.62083807040909</v>
+        <v>20.37760083575288</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>31.62084474641162</v>
+        <v>21.06270643697428</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>31.61967598553897</v>
+        <v>20.43090553776798</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>31.61968236681153</v>
+        <v>21.90696688018608</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>31.61968577115789</v>
+        <v>22.35284517041735</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>31.61957228539789</v>
+        <v>20.92508289452775</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>31.61958678155389</v>
+        <v>23.39460318214836</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>31.61981648146798</v>
+        <v>24.10992958988628</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>31.61942620501448</v>
+        <v>21.66019899129432</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>31.61945501580754</v>
+        <v>26.918732483321</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>31.61953733990944</v>
+        <v>28.99864861998746</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>31.61916318512855</v>
+        <v>25.20168537700008</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>31.61916954468808</v>
+        <v>29.12427570116079</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>31.61913611918528</v>
+        <v>30.3873766565546</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>31.61961610249201</v>
+        <v>24.3465411030455</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>31.61932608048749</v>
+        <v>28.2344066767071</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>31.61858141931957</v>
+        <v>21.38330518483048</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>31.61617959337649</v>
+        <v>20.95765302020388</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>31.61619784828584</v>
+        <v>22.74495032838322</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>31.616203065715</v>
+        <v>23.39478050355827</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>31.61597747131112</v>
+        <v>21.36234164984052</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>31.61601492348666</v>
+        <v>24.29478093748789</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>31.61608133987838</v>
+        <v>25.27203878338913</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>31.6177902148132</v>
+        <v>23.31669102677768</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>31.6178219921513</v>
+        <v>26.85855117139311</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>31.61788083440664</v>
+        <v>28.29902300411328</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>31.61734220612354</v>
+        <v>18.90302183264849</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>31.61735092589972</v>
+        <v>21.285144817763</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>31.61730550938069</v>
+        <v>22.50235749014488</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>31.61802333318924</v>
+        <v>19.7007983553767</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>31.61802840079282</v>
+        <v>21.90955720897753</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>31.61811489640336</v>
+        <v>23.22833266337024</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>31.61545337727369</v>
+        <v>22.3596329949998</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>31.61547252697245</v>
+        <v>24.16163973667478</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>31.61547930045776</v>
+        <v>24.94988252800338</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>31.61522923055026</v>
+        <v>22.54773243810727</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>31.61526861772474</v>
+        <v>25.46808401395868</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>31.61517803498857</v>
+        <v>26.68021430523242</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>31.61869127239145</v>
+        <v>36.96732909859551</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>31.61641576132715</v>
+        <v>40.71010711812809</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>31.61645912373584</v>
+        <v>44.85982097347814</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>31.616460106458</v>
+        <v>45.72095208420899</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>31.61617292114885</v>
+        <v>41.10581857753508</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>31.61626224371992</v>
+        <v>47.76488239328838</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>31.61636687384328</v>
+        <v>49.19712425433974</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>31.61762181643552</v>
+        <v>31.74118748531978</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>31.61772634205669</v>
+        <v>41.15372133652435</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>31.61803397803221</v>
+        <v>42.53438110435701</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>31.61739792976141</v>
+        <v>41.98851733302398</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>31.6174323366502</v>
+        <v>47.73704659998149</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>31.61727742322783</v>
+        <v>48.69274612171322</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>31.61798468218648</v>
+        <v>39.76673643460567</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>31.61801611460248</v>
+        <v>45.25875051470562</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>31.61818685103854</v>
+        <v>46.23258141417784</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>31.61564387081584</v>
+        <v>51.90994860177464</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>31.61568353528995</v>
+        <v>56.06423714191457</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>31.61568558802233</v>
+        <v>56.81620488363998</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>31.61538139307667</v>
+        <v>52.27645461409681</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>31.61546870680237</v>
+        <v>58.91796036034393</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>31.61427159887651</v>
+        <v>60.13972588312483</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>31.6188133643322</v>
+        <v>34.29885256462201</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>31.61655470855552</v>
+        <v>37.7822358946272</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>31.61659469826205</v>
+        <v>41.93968123525524</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>31.6165974058272</v>
+        <v>42.89432189122517</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>31.61632166640118</v>
+        <v>38.30873698862116</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>31.61640385528334</v>
+        <v>44.96792919023914</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>31.61653351734439</v>
+        <v>46.55041081688373</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>31.61778147098744</v>
+        <v>29.67362622137238</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>31.61788062727772</v>
+        <v>39.02267152093332</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>31.61816279933268</v>
+        <v>40.63990678355571</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>31.61754791021481</v>
+        <v>39.5989896261589</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>31.61757937166344</v>
+        <v>45.4027438982682</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>31.61743692534194</v>
+        <v>46.48272210159936</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>31.61812932314448</v>
+        <v>37.4948760533997</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>31.61815794826162</v>
+        <v>43.02804306370247</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>31.61834389546299</v>
+        <v>44.14514439973376</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>31.61582856776172</v>
+        <v>49.50619158189161</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>31.61586438384343</v>
+        <v>53.68129101353781</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>31.61587007752248</v>
+        <v>54.51514148477874</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>31.61557522457234</v>
+        <v>49.94638469310711</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>31.61565412075355</v>
+        <v>56.61233106413216</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>31.61399563775693</v>
+        <v>57.96363022267053</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>31.61964778510703</v>
+        <v>29.65915109013969</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>31.61786741743777</v>
+        <v>29.61447877814922</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>31.61788294742666</v>
+        <v>32.40377395808324</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>31.61789381911706</v>
+        <v>33.38013171610196</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>31.61770046968315</v>
+        <v>29.7007171572975</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>31.61773427702686</v>
+        <v>34.11458996211413</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>31.61787754653448</v>
+        <v>35.6989794070217</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>31.61908324196324</v>
+        <v>29.52495103611363</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>31.61911698229453</v>
+        <v>34.85005173788182</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>31.619222774806</v>
+        <v>36.86512215769848</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>31.61881639096794</v>
+        <v>35.01529996963746</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>31.61882662646029</v>
+        <v>39.12296818798271</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>31.61878126289663</v>
+        <v>40.34078646468352</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>31.61930316693217</v>
+        <v>33.6225249695171</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>31.61931283247709</v>
+        <v>37.64149901666445</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>31.61934092311157</v>
+        <v>39.03137705287516</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>31.61742019614551</v>
+        <v>40.15248148415839</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>31.61743740729917</v>
+        <v>43.04608631862307</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>31.61744809109486</v>
+        <v>43.99464378421651</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>31.61723791711751</v>
+        <v>39.97682385159801</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>31.61727559847624</v>
+        <v>44.54480793373725</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>31.6164167280706</v>
+        <v>46.08378991830664</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>31.61992640196344</v>
+        <v>20.11234649328421</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>31.61993253102461</v>
+        <v>21.32355866924768</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>31.61993044768239</v>
+        <v>21.83955320947579</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>31.61959933850059</v>
+        <v>18.02957240959586</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>31.61959853686515</v>
+        <v>18.49166403493573</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>31.61959984281899</v>
+        <v>19.19803147858506</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>31.62002813048975</v>
+        <v>18.71334538797637</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>31.62002600735888</v>
+        <v>19.16560076192704</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>31.62004214627381</v>
+        <v>19.90301691862941</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>31.61842857539978</v>
+        <v>18.57540879386984</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>31.61843260113505</v>
+        <v>19.25157151241377</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>31.61843401816131</v>
+        <v>19.70538144323959</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>31.61830997225869</v>
+        <v>18.78823023997955</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>31.61831744802708</v>
+        <v>19.99318871233182</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>31.6185813758894</v>
+        <v>20.68213882598861</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>31.61814111342551</v>
+        <v>21.9746987757223</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>31.61816277118178</v>
+        <v>24.97781356232337</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>31.61818866854194</v>
+        <v>26.05314906957016</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>31.61768110683193</v>
+        <v>18.24656003793495</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>31.61768584540977</v>
+        <v>20.17693676254432</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>31.61766274099878</v>
+        <v>21.12735174851601</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>31.61833404544376</v>
+        <v>18.86819374982681</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>31.61829652335462</v>
+        <v>20.64774233603274</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>31.61959289199621</v>
+        <v>18.38546216992777</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>31.61960969530575</v>
+        <v>22.36955002010731</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>31.61966311889616</v>
+        <v>22.69552798575614</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>31.61929968840562</v>
+        <v>21.21288032334634</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>31.6192974902117</v>
+        <v>22.99974000151656</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>31.61927794643562</v>
+        <v>23.39814464785397</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>31.61975209680191</v>
+        <v>21.04127551514016</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>31.61974947197358</v>
+        <v>22.84445076169236</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>31.61977676515085</v>
+        <v>23.27956361007026</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>31.61804543699574</v>
+        <v>23.49582138043029</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>31.61805454834787</v>
+        <v>25.48591784981415</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>31.61805399342077</v>
+        <v>25.66947863570136</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>31.61790178133403</v>
+        <v>23.89650224796807</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>31.61792645832063</v>
+        <v>27.3236911716678</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>31.61837028018054</v>
+        <v>27.57879727485</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>31.61788875819538</v>
+        <v>25.67550438986537</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>31.61795684199523</v>
+        <v>33.711686781693</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>31.61814084570486</v>
+        <v>35.03992811767651</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>31.61755877536229</v>
+        <v>32.38180920478943</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>31.61758328174368</v>
+        <v>37.32683839352427</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>31.6174805938614</v>
+        <v>38.18087904463295</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>31.6175492126469</v>
+        <v>31.03492593068004</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>31.61754828609692</v>
+        <v>35.80766410332109</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>31.61975070543958</v>
+        <v>16.47291062080352</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>31.61981573861707</v>
+        <v>20.45107820549845</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>31.61981740638952</v>
+        <v>20.85472979200566</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>31.61947001741419</v>
+        <v>19.44178715542705</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>31.61945026167434</v>
+        <v>21.25946493379837</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>31.6194497271951</v>
+        <v>21.7236318399774</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>31.61990235155312</v>
+        <v>19.37771939226058</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>31.61992979925132</v>
+        <v>21.21707586102542</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>31.61992807322152</v>
+        <v>21.73122595513146</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>31.61827161714679</v>
+        <v>21.63459255065816</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>31.61828134594817</v>
+        <v>23.63406815889502</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>31.61827961338788</v>
+        <v>23.84781514824483</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>31.61813449852508</v>
+        <v>22.09790190333036</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>31.61853269038597</v>
+        <v>25.5339687209672</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>31.61853147375053</v>
+        <v>25.83144231284837</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>31.6180434861193</v>
+        <v>23.26718220592985</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>31.61826993770863</v>
+        <v>31.25678108824764</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>31.61827524313668</v>
+        <v>32.79844796277289</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>31.61770820577341</v>
+        <v>29.69769803835887</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>31.61763890777728</v>
+        <v>34.68645331829969</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>31.61763741973187</v>
+        <v>35.66309698129211</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>31.61776059046394</v>
+        <v>28.43928897701716</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>31.61776133263043</v>
+        <v>33.25304599116249</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>31.62069413817594</v>
+        <v>16.93360906156982</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>31.62071843218171</v>
+        <v>19.28475217932739</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>31.62071896083138</v>
+        <v>20.04058581727366</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>31.62047041173642</v>
+        <v>18.45488508742581</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>31.62046009890469</v>
+        <v>19.80850042843914</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>31.62046131984664</v>
+        <v>20.32880608170542</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>31.62078702965615</v>
+        <v>18.49723997201296</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>31.62079687575688</v>
+        <v>19.830328835762</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>31.62079490143855</v>
+        <v>20.42654908348406</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>31.61959560700196</v>
+        <v>19.73775468181913</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>31.61960125522681</v>
+        <v>21.0155359190076</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>31.61960134775079</v>
+        <v>21.40643544440215</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>31.61949562970326</v>
+        <v>20.259044570759</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>31.61967298936814</v>
+        <v>22.39864501408121</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>31.61967975208852</v>
+        <v>23.02468538488574</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>31.61928966082954</v>
+        <v>22.7041678728522</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>31.61936075715015</v>
+        <v>27.3296820804359</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>31.61936402395299</v>
+        <v>29.19267424216961</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>31.61897810386507</v>
+        <v>25.74372213232891</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>31.61894909500294</v>
+        <v>29.1913112953145</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>31.61895932585347</v>
+        <v>30.33954490891973</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>31.61930138721792</v>
+        <v>25.01994631209058</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>31.61929214331476</v>
+        <v>28.43742923696397</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>31.61840023644797</v>
+        <v>21.69564236083085</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>31.61588726564463</v>
+        <v>21.27044632239453</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>31.61590039501026</v>
+        <v>22.83986070539267</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>31.61590079004849</v>
+        <v>23.39977683148549</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>31.61569073927431</v>
+        <v>21.66351389122335</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>31.61573440478027</v>
+        <v>24.24402042202577</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>31.61574570052086</v>
+        <v>25.08192732869242</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>31.61762211820851</v>
+        <v>23.73055917452792</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>31.61767171185206</v>
+        <v>26.81750878323866</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>31.61767329878735</v>
+        <v>28.07443357453765</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>31.61711761572529</v>
+        <v>19.67009572568889</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>31.61708226602757</v>
+        <v>21.7373806244901</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>31.61709583250147</v>
+        <v>22.79747384014321</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>31.61783811065529</v>
+        <v>20.41240692604474</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>31.61792109380129</v>
+        <v>22.31794198538633</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>31.61791276680271</v>
+        <v>23.4727202352255</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>31.61513433752872</v>
+        <v>22.68638100947009</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>31.61514773080376</v>
+        <v>24.26707083483242</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>31.61514927983918</v>
+        <v>24.943729659269</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>31.61491597650929</v>
+        <v>22.88680085368676</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>31.61499177457585</v>
+        <v>25.45396245207824</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>31.61500890710392</v>
+        <v>26.49035245921999</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>31.61830467555655</v>
+        <v>36.67108227825597</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>31.61579571355086</v>
+        <v>40.03748969998381</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>31.61583330488143</v>
+        <v>43.68106686707218</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>31.61582157870766</v>
+        <v>44.46228821205711</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>31.61556094569005</v>
+        <v>40.38543817438962</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>31.61567198445582</v>
+        <v>46.23100156497235</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>31.61566432583385</v>
+        <v>47.53332164882575</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>31.61729577107619</v>
+        <v>32.27427737443013</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>31.61760336315693</v>
+        <v>40.56541387225445</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>31.617604185587</v>
+        <v>41.80497915298026</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>31.61694649129261</v>
+        <v>41.44730300895537</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>31.61685829078562</v>
+        <v>46.51262725587908</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>31.61685495676498</v>
+        <v>47.36351874269164</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>31.61761669869959</v>
+        <v>39.42466185942668</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>31.61779492220042</v>
+        <v>44.27205564326484</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>31.61778968490394</v>
+        <v>45.13793441377913</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>31.61500447416386</v>
+        <v>50.20710268025357</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>31.61503812675174</v>
+        <v>53.86414257498564</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>31.61502839528599</v>
+        <v>54.54534737914655</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>31.61474889078148</v>
+        <v>50.51084496604292</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>31.61404470315534</v>
+        <v>56.35577486220988</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>31.61408906917486</v>
+        <v>57.46603788904265</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>31.61845650015266</v>
+        <v>34.24637853327234</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>31.61598349545031</v>
+        <v>37.39443860485193</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>31.61601730917418</v>
+        <v>41.04043497871736</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>31.61600827635285</v>
+        <v>41.90879140894701</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>31.61572560922055</v>
+        <v>37.86634946500469</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>31.61585182809785</v>
+        <v>43.70387979636657</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>31.61584699646426</v>
+        <v>45.14667294924158</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>31.61773241602736</v>
+        <v>30.39536646895936</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>31.61774046203133</v>
+        <v>38.6243059209077</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>31.617743997977</v>
+        <v>40.07666469063368</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>31.61692921925308</v>
+        <v>39.26797381951882</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>31.61699553230649</v>
+        <v>44.37951339812447</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>31.61699606221491</v>
+        <v>45.34305512807383</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>31.61807316269817</v>
+        <v>37.34911696039884</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>31.61798801259436</v>
+        <v>42.23159011929145</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>31.61798347651575</v>
+        <v>43.22538259177844</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>31.61523578222051</v>
+        <v>48.02114104716085</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>31.61525884944131</v>
+        <v>51.69347035922581</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>31.6152528718198</v>
+        <v>52.44965305364293</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>31.61396137743559</v>
+        <v>48.39659956963447</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>31.61396750345037</v>
+        <v>54.25761788900245</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>31.61395741038222</v>
+        <v>55.48682093319893</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>31.61949832483671</v>
+        <v>29.73203587215995</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>31.61761490904329</v>
+        <v>29.58636203809375</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>31.61762274983806</v>
+        <v>32.03834148019828</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>31.6176296052245</v>
+        <v>32.91721882184103</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>31.61751154646849</v>
+        <v>29.6519435787485</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>31.61756373115554</v>
+        <v>33.53268792756862</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>31.61757961548539</v>
+        <v>34.95565425684166</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>31.61901979657868</v>
+        <v>29.6223337415578</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>31.61901817472312</v>
+        <v>34.29990215496742</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>31.61902134528752</v>
+        <v>36.11462861657539</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>31.61853353780208</v>
+        <v>34.34594901327357</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>31.61855629083909</v>
+        <v>37.95452738725899</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>31.61856494899375</v>
+        <v>39.06446077504767</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>31.61922104795141</v>
+        <v>33.16373966986691</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>31.61918440643951</v>
+        <v>36.69307072253552</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>31.61917422623845</v>
+        <v>37.96140988841416</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>31.6171349984263</v>
+        <v>38.7927794847209</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>31.61714347956989</v>
+        <v>41.34050660781077</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>31.61714916325035</v>
+        <v>42.19269729996479</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>31.61644625982567</v>
+        <v>38.61600850673284</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>31.6164472164774</v>
+        <v>42.64025800864818</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>31.61644728888553</v>
+        <v>44.01873372251129</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>31.62014532987051</v>
+        <v>20.87484919272252</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>31.62014634974593</v>
+        <v>22.17826410131662</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>31.62014561074349</v>
+        <v>22.7428383636075</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>31.61982782757727</v>
+        <v>19.02694091010473</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>31.61983160016494</v>
+        <v>19.53429204251889</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>31.61983584383876</v>
+        <v>20.29939246235563</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>31.6202461291271</v>
+        <v>19.65395051051063</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>31.62023558822854</v>
+        <v>20.15914552836552</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>31.62023336538411</v>
+        <v>20.95638672410693</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>31.61874305984229</v>
+        <v>19.61452016126041</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>31.6187478850991</v>
+        <v>20.33604762152446</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>31.61875064830825</v>
+        <v>20.82926279542075</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>31.61892583339808</v>
+        <v>19.7554383918997</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>31.61895896014171</v>
+        <v>21.03732010217587</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>31.61896355809284</v>
+        <v>21.78696867114353</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>31.61859494808005</v>
+        <v>22.91848624505143</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>31.61859306033522</v>
+        <v>26.07979810999</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>31.61859695988079</v>
+        <v>27.19903219369149</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>31.61806339659154</v>
+        <v>19.34930481829725</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>31.61808845935779</v>
+        <v>21.39067684242967</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>31.61804768990597</v>
+        <v>22.38616019916366</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>31.61866185278658</v>
+        <v>19.9200497986635</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>31.61866084225025</v>
+        <v>21.81578134922741</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>31.61998093202438</v>
+        <v>21.70949375667096</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>31.61997904379349</v>
+        <v>25.9689553913809</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>31.61998120929302</v>
+        <v>26.31862497446551</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>31.61959729197852</v>
+        <v>25.44235475212621</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>31.61961266944344</v>
+        <v>27.35449345495071</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>31.61961216104294</v>
+        <v>27.76944383038237</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>31.62010835215918</v>
+        <v>25.01363538346106</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>31.62007365171783</v>
+        <v>26.95135438583308</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>31.62007378325204</v>
+        <v>27.40619868212057</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>31.61851097504631</v>
+        <v>27.91261825018852</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>31.61852477496011</v>
+        <v>30.03520928099154</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>31.61852408692454</v>
+        <v>30.21723055957727</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>31.61882475159321</v>
+        <v>28.11446899210717</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>31.61890447276381</v>
+        <v>31.7678097534194</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>31.61889810604357</v>
+        <v>32.01596588667356</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>31.61866727674962</v>
+        <v>25.34196232100192</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>31.61867365553988</v>
+        <v>33.71618962342248</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>31.61867674218846</v>
+        <v>35.06276968703558</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>31.61796699542499</v>
+        <v>32.25495244128962</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>31.61804204997768</v>
+        <v>37.40246392506715</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>31.61712619565023</v>
+        <v>38.27212554964055</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>31.61785734184495</v>
+        <v>30.90461828342639</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>31.61785266980938</v>
+        <v>35.86602412280786</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>31.62011082288765</v>
+        <v>19.67575739522193</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>31.620109296017</v>
+        <v>23.92746726082154</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>31.62011161623761</v>
+        <v>24.36384577990198</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>31.61974611635283</v>
+        <v>23.5557312019545</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>31.61976048449039</v>
+        <v>25.49951298632002</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>31.61976079405674</v>
+        <v>25.98778213150082</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>31.62023327257207</v>
+        <v>23.2427623341831</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>31.62020088164675</v>
+        <v>25.21715323643907</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>31.62020077805987</v>
+        <v>25.76042717134521</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>31.61870167186251</v>
+        <v>25.92557708023794</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>31.61871436620683</v>
+        <v>28.05846872371148</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>31.61871419945762</v>
+        <v>28.27468458547626</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>31.61897455337112</v>
+        <v>26.19236960632842</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>31.61905050140395</v>
+        <v>29.85610795594125</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>31.61904474445035</v>
+        <v>30.1524107452685</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>31.61878821872947</v>
+        <v>22.9702889843295</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>31.61879445631323</v>
+        <v>31.30367865646323</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>31.61879864763335</v>
+        <v>32.86340808366568</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>31.6181179309298</v>
+        <v>29.61930370351768</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>31.61818723646837</v>
+        <v>34.8152401081211</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>31.61731220964217</v>
+        <v>35.80610152590708</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>31.61801623012621</v>
+        <v>28.36149726936601</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>31.61801570236175</v>
+        <v>33.36656609196897</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>31.62085614276736</v>
+        <v>18.33405055197231</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>31.62085504685867</v>
+        <v>20.83547586162045</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>31.62085564192271</v>
+        <v>21.64095463449836</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>31.62060359130077</v>
+        <v>20.34148617938119</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>31.62060999248223</v>
+        <v>21.78473024088136</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>31.6206114220473</v>
+        <v>22.32368272761079</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>31.6209367731995</v>
+        <v>20.25395504730599</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>31.62092257149251</v>
+        <v>21.67900845330567</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>31.62092146708445</v>
+        <v>22.30411729037129</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>31.61979450354341</v>
+        <v>21.73045849095073</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>31.6197998051483</v>
+        <v>23.08602183043072</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>31.61980039323361</v>
+        <v>23.4924807691174</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>31.61995616445205</v>
+        <v>22.16249393234001</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>31.61999134817705</v>
+        <v>24.43034066225869</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>31.61999491607256</v>
+        <v>25.08190499877126</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>31.6197121066633</v>
+        <v>22.71492251375122</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>31.619708552661</v>
+        <v>27.54396034834141</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>31.61971055981542</v>
+        <v>29.43170839519334</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>31.61929812278962</v>
+        <v>26.01611523140438</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>31.6193223358273</v>
+        <v>29.61392063370813</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>31.61905337573466</v>
+        <v>30.76092370472463</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>31.61955348036572</v>
+        <v>25.2152443314828</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>31.61955307491714</v>
+        <v>28.78342409217684</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>31.61881098091347</v>
+        <v>22.90462081196358</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>31.61653087599867</v>
+        <v>22.51852845411341</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>31.61654529210201</v>
+        <v>24.1583088201686</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>31.61654757178233</v>
+        <v>24.75386224241611</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>31.61634437932598</v>
+        <v>22.84866020536037</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>31.61641300117664</v>
+        <v>25.53863584327615</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>31.61642271054291</v>
+        <v>26.43406178549436</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>31.61812369350874</v>
+        <v>24.51246877035212</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>31.61812216280339</v>
+        <v>27.76186094157009</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>31.61812570298531</v>
+        <v>29.07469232153048</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>31.61752744568216</v>
+        <v>20.55320823318652</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>31.61755661327355</v>
+        <v>22.73729933836972</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>31.61756768117258</v>
+        <v>23.85416130163608</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>31.61842194169915</v>
+        <v>21.26966233349258</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>31.61837589138936</v>
+        <v>23.29708970485679</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>31.61837088292291</v>
+        <v>24.50508445667987</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>31.61584135080112</v>
+        <v>23.70351090632346</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>31.61585712120342</v>
+        <v>25.35587340538029</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>31.61585993915672</v>
+        <v>26.07794891730097</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>31.61567322806317</v>
+        <v>23.83890358271563</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>31.61578702877768</v>
+        <v>26.51668796325062</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>31.61577699969696</v>
+        <v>27.62646308314752</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>31.61887074018607</v>
+        <v>36.74963963227667</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>31.61667989158731</v>
+        <v>40.16667831312203</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>31.61671597499952</v>
+        <v>43.96848001254936</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>31.6167050940431</v>
+        <v>44.74964949262871</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>31.61644991976353</v>
+        <v>40.51086378911157</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>31.61668326770351</v>
+        <v>46.61344542357862</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>31.61666801064288</v>
+        <v>47.91202502007501</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>31.61826819583867</v>
+        <v>31.9272522416478</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>31.61809883726152</v>
+        <v>40.55733173191851</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>31.61809994065191</v>
+        <v>41.8029318047402</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>31.61748641882939</v>
+        <v>41.32210812725324</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>31.61787738659613</v>
+        <v>46.58326130694604</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>31.61787127416946</v>
+        <v>47.45075256867597</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>31.61853127434903</v>
+        <v>39.2881730075821</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>31.61836624355321</v>
+        <v>44.31571393677052</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>31.6183621357865</v>
+        <v>45.19746668262747</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>31.61603038706759</v>
+        <v>50.38657207169046</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>31.61490615546514</v>
+        <v>54.19222526954466</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>31.61498301033582</v>
+        <v>54.87269756384359</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>31.61475434161226</v>
+        <v>50.7060434932431</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>31.61479643140194</v>
+        <v>56.79154561791258</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>31.61478219372906</v>
+        <v>57.89647405033516</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>31.61895160343396</v>
+        <v>34.38055231672881</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>31.61687036366472</v>
+        <v>37.56246616277227</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>31.61701122882122</v>
+        <v>41.37196223006808</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>31.61700462329715</v>
+        <v>42.23782413628822</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>31.61672386037185</v>
+        <v>38.02244299053918</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>31.61686623854002</v>
+        <v>44.12615148116377</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>31.61685269307292</v>
+        <v>45.56074584016498</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>31.61840821711921</v>
+        <v>30.09584570493713</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>31.61825268898465</v>
+        <v>38.66891806239558</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>31.61825648844021</v>
+        <v>40.13086626357919</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>31.6176665483028</v>
+        <v>39.20614746020301</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>31.61805179878951</v>
+        <v>44.51832170734912</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>31.61804879218013</v>
+        <v>45.49880471650054</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>31.61869310109704</v>
+        <v>37.27716040992642</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>31.61854393029651</v>
+        <v>42.3429284818302</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>31.6185408772066</v>
+        <v>43.35542826823824</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>31.61624254761565</v>
+        <v>48.25704626393801</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>31.61466103495854</v>
+        <v>52.08228845608616</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>31.61461625176064</v>
+        <v>52.83714762552721</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>31.61441188553288</v>
+        <v>48.64021677321263</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>31.61442445437087</v>
+        <v>54.74901700282005</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>31.61441666533439</v>
+        <v>55.97160452549133</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>31.61980941612586</v>
+        <v>30.07596853118855</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>31.61817512033124</v>
+        <v>30.07185025555756</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>31.6182877117915</v>
+        <v>32.62869132845081</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>31.61829424863118</v>
+        <v>33.51615990384116</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>31.61810170390791</v>
+        <v>30.14427105994272</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>31.6181647944805</v>
+        <v>34.18978341668179</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>31.61817158020173</v>
+        <v>35.63022726266806</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>31.6194384245236</v>
+        <v>29.85370796012616</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>31.61937554789839</v>
+        <v>34.74080914045511</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>31.61937944268385</v>
+        <v>36.5725698742142</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>31.6189966809429</v>
+        <v>34.93204857931804</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>31.61911174343859</v>
+        <v>38.69864032213624</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>31.61910254094655</v>
+        <v>39.80629736417109</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>31.61960483215206</v>
+        <v>33.64436535621082</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>31.61953106768846</v>
+        <v>37.33097809079456</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>31.61952035466541</v>
+        <v>38.59478633677413</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>31.61776802529959</v>
+        <v>39.64393105200953</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>31.61695654597841</v>
+        <v>42.29697973188362</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>31.61695448146999</v>
+        <v>43.15992903125291</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>31.61679671401309</v>
+        <v>39.47716007190315</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>31.61679646715927</v>
+        <v>43.66526178361865</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>31.61679544977861</v>
+        <v>45.06538493889006</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>31.62179191836256</v>
+        <v>31.62295220825044</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>31.62179203437003</v>
+        <v>31.62295205303234</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>31.62179179673745</v>
+        <v>31.6229521147973</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>31.62166000871384</v>
+        <v>31.6229271788237</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>31.62165950127504</v>
+        <v>31.62292663925496</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>31.62166020812917</v>
+        <v>31.62292670365756</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>31.62183183096307</v>
+        <v>31.62293369350224</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>31.62183036052864</v>
+        <v>31.62293226594956</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>31.62183100762768</v>
+        <v>31.62293233699459</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>31.62118898542004</v>
+        <v>31.62292801390923</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>31.62118391416536</v>
+        <v>31.62292871924465</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>31.62118373713209</v>
+        <v>31.62292874733332</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>31.62113224477066</v>
+        <v>31.62293275755668</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>31.62113660673083</v>
+        <v>31.62293429976846</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>31.62113602285638</v>
+        <v>31.62293433720992</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>31.62098357255562</v>
+        <v>31.6228986150672</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>31.6209734685757</v>
+        <v>31.62290118707945</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>31.62097343678778</v>
+        <v>31.62290410675001</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>31.62083322083455</v>
+        <v>31.62285964949967</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>31.62083439559342</v>
+        <v>31.62286098693857</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>31.62083246280595</v>
+        <v>31.62286322944323</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>31.62110579319017</v>
+        <v>31.62286947824256</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>31.62110616026206</v>
+        <v>31.62286987498485</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>31.62159756687002</v>
+        <v>31.6227515970827</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>31.62159623125266</v>
+        <v>31.62275477900501</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>31.62159649797101</v>
+        <v>31.62275486936606</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>31.62144245410037</v>
+        <v>31.62272303312178</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>31.62144668972313</v>
+        <v>31.62272472806687</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>31.62144804886081</v>
+        <v>31.62272479442457</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>31.62165065311387</v>
+        <v>31.62273520023404</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>31.6216467977511</v>
+        <v>31.62273583233661</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>31.62164778774365</v>
+        <v>31.62273588582958</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>31.62089979126154</v>
+        <v>31.62272856135684</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>31.62103318653961</v>
+        <v>31.62273048765437</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>31.62103217201403</v>
+        <v>31.62273055654092</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>31.62097020502343</v>
+        <v>31.6227456938357</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>31.62098248526763</v>
+        <v>31.62274905530373</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>31.62097981056334</v>
+        <v>31.62274917199373</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>31.62081003022279</v>
+        <v>31.62296491540552</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>31.62077894164017</v>
+        <v>31.62298031635231</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>31.62077748048598</v>
+        <v>31.62298672021418</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>31.62040554775732</v>
+        <v>31.62298694716677</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>31.62040714789944</v>
+        <v>31.62299872247679</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>31.62040511460936</v>
+        <v>31.62300267953546</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>31.62073199522193</v>
+        <v>31.62298404403865</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>31.62073172678493</v>
+        <v>31.62299546498948</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>31.62166217375282</v>
+        <v>31.62275124707717</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>31.6216615393691</v>
+        <v>31.62275440898111</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>31.62166189577464</v>
+        <v>31.6227545297629</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>31.6215147929702</v>
+        <v>31.622722661049</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>31.62151788269634</v>
+        <v>31.62272434228421</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>31.62151943817429</v>
+        <v>31.62272443071321</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>31.62171282397473</v>
+        <v>31.62273482694514</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>31.62170955037319</v>
+        <v>31.62273544776846</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>31.62171065526052</v>
+        <v>31.62273552294997</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>31.62099494774997</v>
+        <v>31.62272821070496</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>31.62112440044615</v>
+        <v>31.62273012225094</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>31.62112340130462</v>
+        <v>31.62273020941606</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>31.62106436883309</v>
+        <v>31.62274537520555</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>31.62107607650882</v>
+        <v>31.62274871150816</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>31.62107350222919</v>
+        <v>31.62274885838735</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>31.6209133130662</v>
+        <v>31.62294719574208</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>31.62088289792945</v>
+        <v>31.62296123197697</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>31.62088193406042</v>
+        <v>31.62296940573465</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>31.62051199193417</v>
+        <v>31.62296621091349</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>31.62051343488487</v>
+        <v>31.62297714340304</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>31.62051221312797</v>
+        <v>31.62298220481102</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>31.62082429924597</v>
+        <v>31.62296346821868</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>31.62082484990306</v>
+        <v>31.62297412738608</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>31.62204404469321</v>
+        <v>31.6228823623944</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>31.6220456625679</v>
+        <v>31.6228840895568</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>31.62204575838881</v>
+        <v>31.622884486339</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>31.62194051300264</v>
+        <v>31.62286730124179</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>31.62193670281573</v>
+        <v>31.62286821907876</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>31.62193706711357</v>
+        <v>31.62286851481636</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>31.62207686031062</v>
+        <v>31.62287368129281</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>31.62207567436688</v>
+        <v>31.62287401285009</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>31.62207596039071</v>
+        <v>31.62287436288232</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>31.6215598593363</v>
+        <v>31.62287076193385</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>31.62164472269229</v>
+        <v>31.62287179127293</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>31.62164421275194</v>
+        <v>31.62287191850678</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>31.62160453988799</v>
+        <v>31.62288022150008</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>31.62160917721261</v>
+        <v>31.62288201708071</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>31.62160824974952</v>
+        <v>31.62288218826777</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>31.62148221909068</v>
+        <v>31.62292210210013</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>31.62146965364676</v>
+        <v>31.62292854858804</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>31.6214684862423</v>
+        <v>31.62293971794046</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>31.62130054790978</v>
+        <v>31.62291890729604</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>31.62130697516596</v>
+        <v>31.62292385752587</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>31.62130610397685</v>
+        <v>31.62293140291154</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>31.62151926167405</v>
+        <v>31.62292130887922</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>31.62151661014924</v>
+        <v>31.62292590647897</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>31.62107440939077</v>
+        <v>31.62287258654769</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>31.61999736462174</v>
+        <v>31.62286273625938</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>31.61999122089106</v>
+        <v>31.62286432006156</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>31.6199911095695</v>
+        <v>31.62286482121488</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>31.61990543538195</v>
+        <v>31.62287039910839</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>31.61991410093932</v>
+        <v>31.62287318127557</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>31.61991316183</v>
+        <v>31.62287357511623</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>31.62076628502869</v>
+        <v>31.622900408415</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>31.6207539858127</v>
+        <v>31.62290298051161</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>31.62075342591491</v>
+        <v>31.62290591088877</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>31.62051408555741</v>
+        <v>31.62286197034226</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>31.62055033111639</v>
+        <v>31.62286332523068</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>31.62055077068545</v>
+        <v>31.62286557469336</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>31.62087551415998</v>
+        <v>31.62287166403553</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>31.62087036811144</v>
+        <v>31.62287209523995</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>31.62087079915899</v>
+        <v>31.6228748141546</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>31.61967135938941</v>
+        <v>31.62286504956793</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>31.61982889363465</v>
+        <v>31.62286662006684</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>31.61984220708353</v>
+        <v>31.62286712756368</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>31.6197585363756</v>
+        <v>31.62287261357103</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>31.61976293799596</v>
+        <v>31.62287536458885</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>31.61976002606686</v>
+        <v>31.62287576895426</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>31.62089161095754</v>
+        <v>31.62299899579518</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>31.61974828633557</v>
+        <v>31.6230056993788</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>31.61977187257608</v>
+        <v>31.62301406283298</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>31.61976988000284</v>
+        <v>31.62301820516685</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>31.61966517976303</v>
+        <v>31.62301027332157</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>31.61969083761588</v>
+        <v>31.62302349009672</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>31.61968536292696</v>
+        <v>31.62303052435914</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>31.62062530024994</v>
+        <v>31.62301112890641</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>31.6205856402983</v>
+        <v>31.623027810087</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>31.62058411138497</v>
+        <v>31.62303430317917</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>31.62031861859204</v>
+        <v>31.62304301478052</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>31.62038267208344</v>
+        <v>31.62305614965321</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>31.62038069494068</v>
+        <v>31.62305980753346</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>31.62072151608882</v>
+        <v>31.62303637516935</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>31.62069733893024</v>
+        <v>31.62304907855812</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>31.62069633733903</v>
+        <v>31.6230526444727</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>31.61946595606922</v>
+        <v>31.6230656633721</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>31.61926081352604</v>
+        <v>31.62307483144153</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>31.619259382252</v>
+        <v>31.62307837144949</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>31.61916335255625</v>
+        <v>31.62306854582542</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>31.61917028756795</v>
+        <v>31.62308296964615</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>31.61916668932649</v>
+        <v>31.62308891822314</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>31.62099670377353</v>
+        <v>31.62297875386607</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>31.61990039578182</v>
+        <v>31.62298608313962</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>31.61991800610819</v>
+        <v>31.62299358258388</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>31.61991609986246</v>
+        <v>31.62299867016421</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>31.61981635835686</v>
+        <v>31.62299233067572</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>31.61984059757955</v>
+        <v>31.62300408291137</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>31.61983537529379</v>
+        <v>31.62301269001978</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>31.62074160880239</v>
+        <v>31.62299604347593</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>31.62070406063926</v>
+        <v>31.62301135759864</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>31.62070330083577</v>
+        <v>31.6230194594876</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>31.62045371100169</v>
+        <v>31.62302474724273</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>31.6205181294558</v>
+        <v>31.62303711222715</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>31.62051683781617</v>
+        <v>31.6230416961783</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>31.62083936021518</v>
+        <v>31.62301844666235</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>31.62081708723363</v>
+        <v>31.62303039512827</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>31.62081631687546</v>
+        <v>31.62303491559868</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>31.61964280879466</v>
+        <v>31.62304816388986</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>31.61932924142389</v>
+        <v>31.62305659541178</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>31.61930626399769</v>
+        <v>31.62306092111219</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>31.61921572475998</v>
+        <v>31.62305241905799</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>31.6192175535896</v>
+        <v>31.62306560636753</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>31.61921669248246</v>
+        <v>31.623072857246</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>31.62153628842477</v>
+        <v>31.62293436094998</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>31.62074004819071</v>
+        <v>31.62292813429591</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>31.62075187816025</v>
+        <v>31.62293110699427</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>31.62075086719307</v>
+        <v>31.62293604495928</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>31.62068454128877</v>
+        <v>31.62293416884258</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>31.62069405918066</v>
+        <v>31.62293877396667</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>31.62069218126038</v>
+        <v>31.62294649237812</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>31.62134205150668</v>
+        <v>31.62292870515781</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>31.62132721643234</v>
+        <v>31.62293446990189</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>31.62132612317484</v>
+        <v>31.62294627936523</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>31.6211520410218</v>
+        <v>31.62292203939321</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>31.62117283813997</v>
+        <v>31.62292706935989</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>31.62117017040811</v>
+        <v>31.62293451261724</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>31.6214073124567</v>
+        <v>31.62292542211383</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>31.62139686143752</v>
+        <v>31.6229299639572</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>31.62139492976841</v>
+        <v>31.62293846336561</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>31.62053502830096</v>
+        <v>31.62292953204332</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>31.6204332752436</v>
+        <v>31.6229328352555</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>31.62043265481714</v>
+        <v>31.62293741995175</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>31.62036487502009</v>
+        <v>31.62293455564165</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>31.62036516384093</v>
+        <v>31.62293976479372</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>31.62036481453246</v>
+        <v>31.62294684006168</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/additive/ranking_test1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.113</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.446</v>
+        <v>21.517</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.162</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.004</v>
+        <v>24.481</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.348</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.999</v>
+        <v>20.203</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>26.66611881156826</v>
+        <v>0.08445951097005633</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>27.14405818552666</v>
+        <v>28.33604017560138</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27.35113161752657</v>
+        <v>34.14752251119362</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25.6605024203169</v>
+        <v>11.98171179488075</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.83539413223808</v>
+        <v>21.49488621179839</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.12265547991001</v>
+        <v>25.7859376248193</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>25.96550276067532</v>
+        <v>19.53139649070724</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.12763439682796</v>
+        <v>26.91686936783069</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.42501243125292</v>
+        <v>29.9637771640116</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25.91394472189132</v>
+        <v>31.40777289510445</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>26.18725161321719</v>
+        <v>37.46443869770915</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>26.36815014070898</v>
+        <v>39.57437988242337</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>26.02987718828305</v>
+        <v>20.87087683141258</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>26.5205495941766</v>
+        <v>36.72094405740129</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>26.79376157820823</v>
+        <v>41.39495002110582</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>25.30339127617884</v>
+        <v>6.071810382719129</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.48737845197885</v>
+        <v>34.32603196391833</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>26.95878197634483</v>
+        <v>40.13792425207246</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>23.21051646576137</v>
+        <v>17.96933802921863</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>23.9714501227838</v>
+        <v>27.48452644842357</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>24.39077593113434</v>
+        <v>31.77575387242096</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>23.6223443501854</v>
+        <v>25.52034825756571</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>24.31644928760252</v>
+        <v>32.90729534873399</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>24.24015222558861</v>
+        <v>4.905238034774449</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25.8922774014552</v>
+        <v>33.15703819557357</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>26.03420835476312</v>
+        <v>38.96851657331306</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>25.29960062136312</v>
+        <v>16.80293173232699</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26.0516961455593</v>
+        <v>26.31622541385978</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>26.21976936368869</v>
+        <v>30.6072618629373</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>25.24147332727632</v>
+        <v>24.35271433707747</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>25.99157773682482</v>
+        <v>31.73828143351293</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>26.17535549925115</v>
+        <v>34.78518029897632</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>26.40274255464538</v>
+        <v>36.22926971184561</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>27.22869546071427</v>
+        <v>42.28598804095586</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>27.30224672829758</v>
+        <v>44.39592826830333</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>26.72582308189288</v>
+        <v>25.69224876462554</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>28.14550746173491</v>
+        <v>41.54247406895772</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>28.24562898785901</v>
+        <v>46.21647097065554</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>25.91003538379533</v>
+        <v>10.89315752256275</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.19372603436561</v>
+        <v>39.14759861586979</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.8257719676469</v>
+        <v>44.95948694707565</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>28.32769693135079</v>
+        <v>22.79112662110149</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.36443356823689</v>
+        <v>32.30643431642918</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>30.78761778181286</v>
+        <v>36.59764677680514</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>27.90654142012948</v>
+        <v>30.34223477261353</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29.86824923289849</v>
+        <v>37.72927609072949</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>23.57186388163347</v>
+        <v>7.725715097664967</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>25.22094061828684</v>
+        <v>35.97752071713203</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>25.39707535803705</v>
+        <v>41.78898614239765</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>24.68048132357369</v>
+        <v>19.62360609242521</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>25.44406705232918</v>
+        <v>29.13693080992673</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>25.64047891529321</v>
+        <v>33.42795495033213</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>24.66552771840736</v>
+        <v>27.17340422033417</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>25.42922498938322</v>
+        <v>34.55899755213179</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>25.64715472110327</v>
+        <v>37.60588953570252</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>25.74298730857184</v>
+        <v>39.04998662025898</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>26.57273856109999</v>
+        <v>45.10671072002445</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>26.65883308471594</v>
+        <v>47.21664763337399</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>26.08390555091881</v>
+        <v>28.51293251430977</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>27.50747911488308</v>
+        <v>44.36318468847478</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>27.62494551654542</v>
+        <v>49.03717078666737</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>24.85263926375593</v>
+        <v>13.7139131008988</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>28.10195791117168</v>
+        <v>41.96835965170803</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>28.83712462507077</v>
+        <v>47.78023502966662</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>27.13631608225869</v>
+        <v>25.61207951554227</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.1799917295459</v>
+        <v>35.12741824513589</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.66135918301215</v>
+        <v>39.41861839726014</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>26.75247378251538</v>
+        <v>33.16320319073325</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>28.71995063908679</v>
+        <v>40.55027074335246</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>24.68218885829248</v>
+        <v>2.092794671851699</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>25.65531657922484</v>
+        <v>30.34451020419201</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>25.95619755883867</v>
+        <v>36.15601698854037</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>25.23352474998995</v>
+        <v>13.99029827415504</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>25.79747495833689</v>
+        <v>23.50355419155515</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>25.99472455504086</v>
+        <v>27.79462367989149</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>25.25108950305298</v>
+        <v>21.54001589017285</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>25.80198144212222</v>
+        <v>28.92555262840481</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>26.03036149201457</v>
+        <v>31.97247609570432</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>25.87285844096867</v>
+        <v>33.41649866801047</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>26.39604284759864</v>
+        <v>39.47319868980865</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>26.54450574190113</v>
+        <v>41.58315194968916</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>26.17579890533846</v>
+        <v>22.87952466346619</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>27.0496721384151</v>
+        <v>38.72969289080297</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>27.28777794764275</v>
+        <v>43.40372223371671</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>25.31354902481679</v>
+        <v>8.080426163624203</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>27.18266354885436</v>
+        <v>36.33478262318543</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>28.05570197869167</v>
+        <v>42.14669936204152</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>26.30674927773105</v>
+        <v>19.97820514733562</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>27.69864210430176</v>
+        <v>29.49347507527464</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>28.22976667429253</v>
+        <v>33.78472057582812</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>26.10862443661996</v>
+        <v>27.52924830322238</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>27.48181869210541</v>
+        <v>34.91625926141135</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>24.77646341891336</v>
+        <v>35.95430698337348</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>24.4218036594944</v>
+        <v>37.39890635193238</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>25.04073717962497</v>
+        <v>43.45643959831668</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>25.27819694187812</v>
+        <v>45.56654526293105</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>24.71638029839252</v>
+        <v>26.86132927893741</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>25.73442771002492</v>
+        <v>42.71325606470052</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>26.08553275879476</v>
+        <v>47.38773878679056</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>26.33883862634861</v>
+        <v>14.93329511016268</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>27.56647758679272</v>
+        <v>43.187336137639</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>28.11787462382242</v>
+        <v>48.99908150601946</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>24.18925595735792</v>
+        <v>26.83143904816925</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>25.0058934612035</v>
+        <v>36.34694542233033</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>25.47060444694242</v>
+        <v>40.63812797649164</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>24.63324283885344</v>
+        <v>34.38267000743154</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>25.37881668556537</v>
+        <v>41.7698681622687</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>25.88394966847782</v>
+        <v>44.81681394709435</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>25.39067797142289</v>
+        <v>46.26209146654023</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>26.01712709662182</v>
+        <v>52.31969865367953</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>26.30514648922464</v>
+        <v>54.4297649744145</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>25.5829665733933</v>
+        <v>35.72463829815965</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>26.60144474549991</v>
+        <v>51.57665211170704</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>27.03915460819706</v>
+        <v>56.25109519328144</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>30.28513250231577</v>
+        <v>40.77627879491431</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>31.52460776562389</v>
+        <v>42.22097184916797</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>33.02375457792355</v>
+        <v>48.27855762556963</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>33.40399232515404</v>
+        <v>50.38866233335475</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>31.85849784098352</v>
+        <v>31.68326988464387</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>34.26241756099397</v>
+        <v>47.53535475983004</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>34.89413843148096</v>
+        <v>52.20982842186661</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.42484705739058</v>
+        <v>19.75472003777427</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>32.8295069314791</v>
+        <v>48.00898057375591</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>33.41793044698953</v>
+        <v>53.8207219849505</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>32.95444033747459</v>
+        <v>31.65330542703621</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>35.05052611543904</v>
+        <v>41.16893107626286</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>35.46250110248621</v>
+        <v>45.46009866714244</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>32.2176387975948</v>
+        <v>39.20463431144524</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>34.22026190230092</v>
+        <v>46.59192669196668</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>34.6290915178317</v>
+        <v>49.63886354690212</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>36.62823915217565</v>
+        <v>51.08423475142749</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>38.13976791987075</v>
+        <v>57.14189446786916</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>38.46944550709117</v>
+        <v>59.25195983162494</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>36.90298039100249</v>
+        <v>40.54665669243671</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>39.31749080420232</v>
+        <v>56.39882859383918</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>39.85474063842236</v>
+        <v>61.07326261483102</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.1982822935847</v>
+        <v>43.59726656604912</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>30.35700737790659</v>
+        <v>45.04196728738496</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>31.84766894406676</v>
+        <v>51.09955883367329</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>32.27172582579657</v>
+        <v>53.20966022694697</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>30.75149669586018</v>
+        <v>34.50423216152169</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>33.13653928405608</v>
+        <v>50.35634390711662</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>33.83979236703889</v>
+        <v>55.03080676474017</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.60158458719415</v>
+        <v>22.57550345200011</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>31.9650344879762</v>
+        <v>50.82976944505831</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>32.65604671464354</v>
+        <v>56.64149790265183</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>31.98624022185781</v>
+        <v>34.47428615502745</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>34.09098399797312</v>
+        <v>43.98994283687725</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>34.55575381052371</v>
+        <v>48.28109811891577</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>31.29332203245353</v>
+        <v>42.025630564063</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>33.29940000960645</v>
+        <v>49.41294917796356</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>33.76816793097058</v>
+        <v>52.45987915089845</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>35.66293340700693</v>
+        <v>53.90525801976751</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>37.17225755400322</v>
+        <v>59.96292350568249</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>37.53961809878204</v>
+        <v>62.07298555491978</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>35.97535264648172</v>
+        <v>43.36764679946916</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>38.38262641996409</v>
+        <v>59.21984557080598</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>38.98058711778603</v>
+        <v>63.89426878613367</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.08223306114143</v>
+        <v>37.96328656803983</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>27.93388757704777</v>
+        <v>39.40791277659353</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>28.9163325559006</v>
+        <v>45.4654802449156</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.31252902372988</v>
+        <v>47.57559798523969</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>28.12572128926504</v>
+        <v>28.87025775782875</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.67932923089164</v>
+        <v>44.72228555351817</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>30.31805819015175</v>
+        <v>49.39679165706796</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>28.2513405417714</v>
+        <v>16.94202195316152</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>30.13507738221256</v>
+        <v>45.19619785788743</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>30.9982829676693</v>
+        <v>51.00796767563381</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>29.86716164879112</v>
+        <v>28.84041722956918</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>31.33052880728329</v>
+        <v>38.35600511322705</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>31.84700415431422</v>
+        <v>42.64720574296835</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.49745209259797</v>
+        <v>36.39168111918978</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>30.92199107825146</v>
+        <v>43.77894314108503</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>31.5112842896577</v>
+        <v>46.82590459709682</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>31.71609446179922</v>
+        <v>48.27120895685253</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>32.74488105198073</v>
+        <v>54.32885036590356</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>33.12680071794733</v>
+        <v>56.43892876185007</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>31.79125899833537</v>
+        <v>37.7336778419369</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>33.41567277106824</v>
+        <v>53.58579266553065</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>34.02984186273986</v>
+        <v>58.26025912716214</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>19.49789218943562</v>
+        <v>-9.199179415627121</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>20.92192619207167</v>
+        <v>19.05247569292622</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>21.53829370983336</v>
+        <v>24.86385893419968</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>17.41684888070238</v>
+        <v>2.697096532764341</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>17.9709200037684</v>
+        <v>12.21016596393813</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>18.8054842981392</v>
+        <v>16.50115752928796</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>18.11764178272218</v>
+        <v>10.24676283421886</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>18.66600597623566</v>
+        <v>17.63218280268016</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>19.53698623365003</v>
+        <v>20.67902386788942</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>18.07161957445405</v>
+        <v>22.12278724973837</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>18.85684180420174</v>
+        <v>28.17943034277992</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>19.39478706000376</v>
+        <v>30.28935357571866</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>18.25326684110364</v>
+        <v>11.58584511944023</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>19.64809356723595</v>
+        <v>27.43581156132232</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>20.46565591161421</v>
+        <v>32.10979026615562</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>21.49029432696352</v>
+        <v>-3.21085030942529</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>24.93949502274959</v>
+        <v>25.04344575914511</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>26.16421232788455</v>
+        <v>30.85523896078494</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>17.48530905497157</v>
+        <v>8.68570101555256</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>19.70940801283656</v>
+        <v>18.2007844705631</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>20.79497063101769</v>
+        <v>22.49195205540955</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>18.13020338876981</v>
+        <v>16.23669290288556</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>20.19435560805176</v>
+        <v>23.62358710316833</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>19.92974328466637</v>
+        <v>-4.3785139413392</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>24.5671797859455</v>
+        <v>23.87336066509793</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>24.94743172501401</v>
+        <v>29.68473994788597</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>23.86830519830505</v>
+        <v>7.518203418682198</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>25.95922497328282</v>
+        <v>17.03139211386267</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>26.40812355958187</v>
+        <v>21.32236871594385</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>23.44381712787783</v>
+        <v>15.06796762570489</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>25.5588297031132</v>
+        <v>22.45348181303812</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>26.05177167273296</v>
+        <v>25.50031394746507</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>26.56992909218763</v>
+        <v>26.94417100990709</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>28.88456531758613</v>
+        <v>33.00086662866156</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.08385404923982</v>
+        <v>35.11078890433928</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>26.84203931913016</v>
+        <v>16.40710399700331</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>30.82435150504253</v>
+        <v>32.25722851662929</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>31.09743574163443</v>
+        <v>36.93119815973476</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>24.51829248216715</v>
+        <v>1.61038377878149</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>33.65138270291892</v>
+        <v>29.8648993610319</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>35.13991635432188</v>
+        <v>35.67668860526883</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>32.04616584468795</v>
+        <v>13.50737655385965</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>37.67190276475192</v>
+        <v>23.02257928357424</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>38.62804446061446</v>
+        <v>27.31373190562861</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>30.57247067500926</v>
+        <v>21.05846636018985</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>35.99460038810518</v>
+        <v>28.44545478702273</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>17.72605391078724</v>
+        <v>-1.558054512278112</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>22.35376912564973</v>
+        <v>26.69382555287869</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>22.82776995733194</v>
+        <v>32.50519188299368</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>21.83285114804397</v>
+        <v>10.33886014638333</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>23.95686976990134</v>
+        <v>19.85207987786826</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>24.48531816974963</v>
+        <v>24.143044171372</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>21.5317713290455</v>
+        <v>17.8886398753185</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>23.68520722687627</v>
+        <v>25.27418029884357</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>24.27405075991743</v>
+        <v>28.32100555141867</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>24.42877907537843</v>
+        <v>29.76487028543327</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>26.75379379954963</v>
+        <v>35.82157167578473</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>26.99055088741278</v>
+        <v>37.93149063722078</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>24.7725932427275</v>
+        <v>19.22777011443086</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.76496727416751</v>
+        <v>35.07792150482189</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.09099957801758</v>
+        <v>39.75188034407652</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>21.85466025804504</v>
+        <v>4.431121716880604</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>30.94175075433305</v>
+        <v>32.68564275700133</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>32.66397455388262</v>
+        <v>38.49741904775269</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.08375060607282</v>
+        <v>16.32831180864569</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>34.76159721718702</v>
+        <v>25.84354557349796</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>35.85121459570512</v>
+        <v>30.1346858873852</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>27.71401752787038</v>
+        <v>23.87941713816665</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>33.18280648127427</v>
+        <v>31.26643180058634</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>16.77575349898583</v>
+        <v>-7.190913421711478</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>19.49113304416915</v>
+        <v>21.06087655543522</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>20.37653689256482</v>
+        <v>26.87228424445002</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>18.90899543831258</v>
+        <v>4.705613842197614</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>20.48014367837247</v>
+        <v>14.21876477389615</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>21.06904241276144</v>
+        <v>18.50977441404141</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>18.82975608377813</v>
+        <v>12.25531306239109</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>20.37760083575288</v>
+        <v>19.64079689206037</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>21.06270643697428</v>
+        <v>22.68765362766701</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>20.43090553776798</v>
+        <v>24.13144385063126</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>21.90696688018608</v>
+        <v>30.18812116255183</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>22.35284517041735</v>
+        <v>32.29805647034775</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>20.92508289452775</v>
+        <v>13.59442377989101</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>23.39460318214836</v>
+        <v>29.4444912232693</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>24.10992958988628</v>
+        <v>34.11849330674406</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>21.66019899129432</v>
+        <v>-1.202303699125331</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>26.918732483321</v>
+        <v>27.05212724885516</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>28.99864861998746</v>
+        <v>32.86394490019607</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>25.20168537700008</v>
+        <v>10.69449896046942</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>29.12427570116079</v>
+        <v>20.20966392386809</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>30.3873766565546</v>
+        <v>24.50084958505315</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>24.3465411030455</v>
+        <v>18.24552377340658</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>28.2344066767071</v>
+        <v>25.63248184075346</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>21.38330518483048</v>
+        <v>26.67053200995301</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>20.95765302020388</v>
+        <v>28.11489902883122</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>22.74495032838322</v>
+        <v>34.17240957746581</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>23.39478050355827</v>
+        <v>36.28249729429044</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>21.36234164984052</v>
+        <v>17.57727585713722</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>24.29478093748789</v>
+        <v>33.42910190195173</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>25.27203878338913</v>
+        <v>38.10355736870472</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>23.31669102677768</v>
+        <v>5.651689781618053</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>26.85855117139311</v>
+        <v>33.90580532524994</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>28.29902300411328</v>
+        <v>39.71745161043155</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>18.90302183264849</v>
+        <v>17.54885742192457</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>21.285144817763</v>
+        <v>27.0642588548985</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>22.50235749014488</v>
+        <v>31.35538156861467</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>19.7007983553767</v>
+        <v>25.10007007662123</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>21.90955720897753</v>
+        <v>32.48721536013645</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>23.22833266337024</v>
+        <v>35.53409441727317</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>22.3596329949998</v>
+        <v>36.9791395695489</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>24.16163973667478</v>
+        <v>43.03672406815449</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>24.94988252800338</v>
+        <v>45.14677244138623</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>22.54773243810727</v>
+        <v>26.44164027782436</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>25.46808401395868</v>
+        <v>42.29355338328103</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>26.68021430523242</v>
+        <v>46.96796920722452</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>36.96732909859551</v>
+        <v>31.49239076372826</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>40.71010711812809</v>
+        <v>32.93685146635605</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>44.85982097347814</v>
+        <v>38.99441454511427</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>45.72095208420899</v>
+        <v>41.10450130555612</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>41.10581857753508</v>
+        <v>22.39910340384402</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>47.76488239328838</v>
+        <v>38.251087537948</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>49.19712425433974</v>
+        <v>42.92553394465333</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>31.74118748531978</v>
+        <v>10.47300166422881</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>41.15372133652435</v>
+        <v>38.72733671800015</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>42.53438110435701</v>
+        <v>44.5389790454112</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>41.98851733302398</v>
+        <v>22.37061075353174</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>47.73704659998149</v>
+        <v>31.88613146058876</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>48.69274612171322</v>
+        <v>36.17723921198817</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>39.76673643460567</v>
+        <v>29.92192132958915</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>45.25875051470562</v>
+        <v>37.30916083846703</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>46.23258141417784</v>
+        <v>40.35603096626821</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>51.90994860177464</v>
+        <v>41.80116980071146</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>56.06423714191457</v>
+        <v>47.8588068289125</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>56.81620488363998</v>
+        <v>49.96885424533114</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>52.27645461409681</v>
+        <v>31.26354562049355</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>58.91796036034393</v>
+        <v>47.11561681347619</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>60.13972588312483</v>
+        <v>51.79002357685781</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>34.29885256462201</v>
+        <v>34.31336089529893</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>37.7822358946272</v>
+        <v>35.75782926520376</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>41.93968123525524</v>
+        <v>41.81539811454591</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>42.89432189122517</v>
+        <v>43.92548156049438</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>38.30873698862116</v>
+        <v>25.22004804166861</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>44.96792919023914</v>
+        <v>41.07205904673922</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>46.55041081688373</v>
+        <v>45.74649464881018</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.67362622137238</v>
+        <v>13.29376743759358</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>39.02267152093332</v>
+        <v>41.54810794871137</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>40.63990678355571</v>
+        <v>47.35973732213026</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>39.5989896261589</v>
+        <v>25.19157384123637</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>45.4027438982682</v>
+        <v>34.70712558216778</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>46.48272210159936</v>
+        <v>38.99822102459721</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>37.4948760533997</v>
+        <v>32.74289994118508</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>43.02804306370247</v>
+        <v>40.13016568474789</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>44.14514439973376</v>
+        <v>43.17702893056717</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>49.50619158189161</v>
+        <v>44.62217542927838</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>53.68129101353781</v>
+        <v>50.67981822768386</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>54.51514148477874</v>
+        <v>52.78986232935777</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>49.94638469310711</v>
+        <v>34.08451808793823</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>56.61233106413216</v>
+        <v>49.93661615133826</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>57.96363022267053</v>
+        <v>54.61101210903573</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.65915109013969</v>
+        <v>28.67944241897451</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.61447877814922</v>
+        <v>30.12383627699533</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>32.40377395808324</v>
+        <v>36.18138104770342</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>33.38013171610196</v>
+        <v>38.29148084052017</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.7007171572975</v>
+        <v>19.58613515982163</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>34.11458996211413</v>
+        <v>35.43806221455143</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>35.6989794070217</v>
+        <v>40.11254106245097</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.52495103611363</v>
+        <v>7.660347457254922</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>34.85005173788182</v>
+        <v>35.91459787929134</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>36.86512215769848</v>
+        <v>41.72626861283218</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>35.01529996963746</v>
+        <v>19.55776643333352</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>39.12296818798271</v>
+        <v>29.07324937547751</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>40.34078646468352</v>
+        <v>33.36439016441032</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>33.6225249695171</v>
+        <v>27.1090120165205</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>37.64149901666445</v>
+        <v>34.49622116736121</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>39.03137705287516</v>
+        <v>37.5431158952342</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>40.15248148415839</v>
+        <v>38.98818788636365</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>43.04608631862307</v>
+        <v>45.04580660722943</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>43.99464378421651</v>
+        <v>47.15586705549899</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>39.97682385159801</v>
+        <v>28.45061064925037</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>44.54480793373725</v>
+        <v>44.30262476507946</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>46.08378991830664</v>
+        <v>48.97706396829208</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>20.11234649328421</v>
+        <v>0.4106225439229334</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>21.32355866924768</v>
+        <v>28.66247362843317</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>21.83955320947579</v>
+        <v>34.47390579892667</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>18.02957240959586</v>
+        <v>12.30788749018732</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>18.49166403493573</v>
+        <v>21.82117767806105</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>19.19803147858506</v>
+        <v>26.11217971576671</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>18.71334538797637</v>
+        <v>19.85764658763376</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>19.16560076192704</v>
+        <v>27.24321146898192</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>19.90301691862941</v>
+        <v>30.2900775599978</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>18.57540879386984</v>
+        <v>31.73403723855595</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>19.25157151241377</v>
+        <v>37.79077179679675</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>19.70538144323959</v>
+        <v>39.90069073345635</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>18.78823023997955</v>
+        <v>21.1970209875137</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>19.99318871233182</v>
+        <v>37.04727493831249</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>20.68213882598861</v>
+        <v>41.72122542879615</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>21.9746987757223</v>
+        <v>6.398754944316671</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>24.97781356232337</v>
+        <v>34.65324696922276</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>26.05314906957016</v>
+        <v>40.4650890838228</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>18.24656003793495</v>
+        <v>18.29629527120355</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>20.17693676254432</v>
+        <v>27.81159947763738</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>21.12735174851601</v>
+        <v>32.10277751573094</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>18.86819374982681</v>
+        <v>25.84737993004476</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>20.64774233603274</v>
+        <v>33.23441903776254</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>18.38546216992777</v>
+        <v>5.231404475251431</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>22.36955002010731</v>
+        <v>33.48347505780178</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>22.69552798575614</v>
+        <v>39.29490326913717</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>21.21288032334634</v>
+        <v>17.12911083616346</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>22.99974000151656</v>
+        <v>26.64252028944905</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>23.39814464785397</v>
+        <v>30.93350736245223</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>21.04127551514016</v>
+        <v>24.67896784316438</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>22.84445076169236</v>
+        <v>32.06462694432091</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>23.27956361007026</v>
+        <v>35.11148410354972</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>23.49582138043029</v>
+        <v>36.55553746465669</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>25.48591784981415</v>
+        <v>42.61232454950957</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>25.66947863570136</v>
+        <v>44.72224252858368</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>23.89650224796807</v>
+        <v>26.01839632937308</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>27.3236911716678</v>
+        <v>41.86880835922759</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>27.57879727485</v>
+        <v>46.5427497869408</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>25.67550438986537</v>
+        <v>11.22010549207867</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>33.711686781693</v>
+        <v>39.47481703076947</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>35.03992811767651</v>
+        <v>45.28665518733701</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>32.38180920478943</v>
+        <v>23.11808727270407</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>37.32683839352427</v>
+        <v>32.63351075545675</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>38.18087904463295</v>
+        <v>36.92467382932703</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>31.03492593068004</v>
+        <v>30.66926985447478</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>35.80766410332109</v>
+        <v>38.05640318916344</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>16.47291062080352</v>
+        <v>8.051890015946675</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>20.45107820549845</v>
+        <v>36.30396605702774</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>20.85472979200566</v>
+        <v>42.11538131596181</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>19.44178715542705</v>
+        <v>19.94979367514143</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>21.25946493379837</v>
+        <v>29.46323416431992</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>21.7236318399774</v>
+        <v>33.75420892857446</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>19.37771939226058</v>
+        <v>27.49966620535483</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>21.21707586102542</v>
+        <v>34.88535154192616</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>21.73122595513146</v>
+        <v>37.93220181919489</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>21.63459255065816</v>
+        <v>39.37626285191411</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>23.63406815889502</v>
+        <v>45.43305570742368</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>23.84781514824483</v>
+        <v>47.54297037219224</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>22.09790190333036</v>
+        <v>28.83908855815807</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>25.5339687209672</v>
+        <v>44.68952745811723</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>25.83144231284837</v>
+        <v>49.36345808192377</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>23.26718220592985</v>
+        <v>14.04086954623788</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>31.25678108824764</v>
+        <v>42.29558654202103</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>32.79844796277289</v>
+        <v>48.10741174505197</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.69769803835887</v>
+        <v>25.93904864322847</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>34.68645331829969</v>
+        <v>35.45450316064441</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>35.66309698129211</v>
+        <v>39.74565392581005</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.43928897701716</v>
+        <v>33.49024674868949</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>33.25304599116249</v>
+        <v>40.877406318604</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>16.93360906156982</v>
+        <v>2.418966448344555</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>19.28475217932739</v>
+        <v>30.67095240177387</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>20.04058581727366</v>
+        <v>36.48240902030555</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>18.45488508742581</v>
+        <v>14.31648271325557</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>19.80850042843914</v>
+        <v>23.82985440213472</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>20.32880608170542</v>
+        <v>28.1208745146324</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>18.49723997201296</v>
+        <v>21.86627473177894</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>19.830328835762</v>
+        <v>29.25190347496196</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>20.42654908348406</v>
+        <v>32.29878523622401</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>19.73775468181913</v>
+        <v>33.74277175668758</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>21.0155359190076</v>
+        <v>39.79954053443087</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>21.40643544440215</v>
+        <v>41.90947154596856</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>20.259044570759</v>
+        <v>23.20567756418107</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>22.39864501408121</v>
+        <v>39.05603251679097</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>23.02468538488574</v>
+        <v>43.73000638601955</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>22.7041678728522</v>
+        <v>8.407379469366425</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>27.3296820804359</v>
+        <v>36.66200637397103</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.19267424216961</v>
+        <v>42.47387293847201</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>25.74372213232891</v>
+        <v>20.30517113517451</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.1913112953145</v>
+        <v>29.82055685071473</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>30.33954490891973</v>
+        <v>34.1117529647946</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>25.01994631209058</v>
+        <v>27.85628872121013</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.43742923696397</v>
+        <v>35.24339169646917</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>21.69564236083085</v>
+        <v>36.28138895791299</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>21.27044632239453</v>
+        <v>37.72595227854411</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>22.83986070539267</v>
+        <v>43.7835542875084</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>23.39977683148549</v>
+        <v>45.89363769943484</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>21.66351389122335</v>
+        <v>27.18825500196747</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>24.24402042202577</v>
+        <v>43.04036853325588</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>25.08192732869242</v>
+        <v>47.71479576971453</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>23.73055917452792</v>
+        <v>15.2604134461345</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>26.81750878323866</v>
+        <v>43.51472491180639</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>28.07443357453765</v>
+        <v>49.32642010827815</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>19.67009572568889</v>
+        <v>27.15857006405495</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>21.7373806244901</v>
+        <v>36.67419222565238</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>22.79747384014321</v>
+        <v>40.96532539462928</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>20.41240692604474</v>
+        <v>34.70987546125841</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>22.31794198538633</v>
+        <v>42.09716563225286</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>23.4727202352255</v>
+        <v>45.14406970246998</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>22.68638100947009</v>
+        <v>46.58931117773282</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>24.26707083483242</v>
+        <v>52.64698712641164</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>24.943729659269</v>
+        <v>54.75703119498039</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>22.88680085368676</v>
+        <v>36.05173780578955</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>25.45396245207824</v>
+        <v>51.90393836175381</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>26.49035245921999</v>
+        <v>56.57832595825912</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>36.67108227825597</v>
+        <v>41.10336417845142</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>40.03748969998381</v>
+        <v>42.54802118519817</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>43.68106686707218</v>
+        <v>48.60567572463922</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>44.46228821205711</v>
+        <v>50.71575817914547</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>40.38543817438962</v>
+        <v>32.01019901647383</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>46.23100156497235</v>
+        <v>47.86247063876326</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>47.53332164882575</v>
+        <v>52.53688881352625</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>32.27427737443013</v>
+        <v>20.08184178189945</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>40.56541387225445</v>
+        <v>48.33637275754106</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>41.80497915298026</v>
+        <v>54.14806399574113</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>41.44730300895537</v>
+        <v>31.9804398522401</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>46.51262725587908</v>
+        <v>41.49618128925736</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>47.36351874269164</v>
+        <v>45.7872994944348</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>39.42466185942668</v>
+        <v>39.53184317423368</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>44.27205564326484</v>
+        <v>46.91922757126586</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>45.13793441377913</v>
+        <v>49.96612271099739</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>50.20710268025357</v>
+        <v>51.41145787182754</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>53.86414257498564</v>
+        <v>57.46918635022369</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>54.54534737914655</v>
+        <v>59.57922946131576</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>50.51084496604292</v>
+        <v>40.87375960897871</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>56.35577486220988</v>
+        <v>56.72611825412375</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>57.46603788904265</v>
+        <v>61.40049678904038</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>34.24637853327234</v>
+        <v>43.92436042609811</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>37.39443860485193</v>
+        <v>45.3690250995646</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>41.04043497871736</v>
+        <v>51.42668540915893</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>41.90879140894701</v>
+        <v>53.53676454935474</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>37.86634946500469</v>
+        <v>34.83116976971187</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>43.70387979636657</v>
+        <v>50.68346826249192</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>45.14667294924158</v>
+        <v>55.35787563253437</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>30.39536646895936</v>
+        <v>22.90263367027612</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>38.6243059209077</v>
+        <v>51.1571701032751</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>40.07666469063368</v>
+        <v>56.96884838734284</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>39.26797381951882</v>
+        <v>34.80142905484352</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>44.37951339812447</v>
+        <v>44.317201525056</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>45.34305512807383</v>
+        <v>48.60830742080871</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>37.34911696039884</v>
+        <v>42.35284790216244</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>42.23159011929145</v>
+        <v>49.74025853300939</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>43.22538259177844</v>
+        <v>52.78714679065306</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>48.02114104716085</v>
+        <v>54.23248961506292</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>51.69347035922581</v>
+        <v>60.29022386318284</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>52.44965305364293</v>
+        <v>62.40026365977528</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>48.39659956963447</v>
+        <v>43.69475819153158</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>54.25761788900245</v>
+        <v>59.5471437062175</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>55.48682093319893</v>
+        <v>64.2215114351221</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.73203587215995</v>
+        <v>38.29037728818478</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.58636203809375</v>
+        <v>39.73496744860163</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>32.03834148019828</v>
+        <v>45.79260367992661</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>32.91721882184103</v>
+        <v>47.90269916770237</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.6519435787485</v>
+        <v>29.19719222577383</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>33.53268792756862</v>
+        <v>45.04940676816748</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>34.95565425684166</v>
+        <v>49.72385738500621</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>29.6223337415578</v>
+        <v>17.26914903277825</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>34.29990215496742</v>
+        <v>45.52359537731363</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>36.11462861657539</v>
+        <v>51.33531502226194</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>34.34594901327357</v>
+        <v>29.16755699050973</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>37.95452738725899</v>
+        <v>38.683260662145</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>39.06446077504767</v>
+        <v>42.97441190577897</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>33.16373966986691</v>
+        <v>36.71889531820293</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>36.69307072253552</v>
+        <v>44.10624935692406</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>37.96140988841416</v>
+        <v>47.15316909803787</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>38.7927794847209</v>
+        <v>48.59843741293182</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>41.34050660781077</v>
+        <v>54.65614758423701</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>42.19269729996479</v>
+        <v>56.76620372789601</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>38.61600850673284</v>
+        <v>38.06078609447125</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>42.64025800864818</v>
+        <v>53.91308766158281</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>44.01873372251129</v>
+        <v>58.58749863736725</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>20.87484919272252</v>
+        <v>-13.52593167329805</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>22.17826410131662</v>
+        <v>14.72488214042401</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>22.7428383636075</v>
+        <v>20.53614706208609</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>19.02694091010473</v>
+        <v>-1.63034395230752</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>19.53429204251889</v>
+        <v>7.882381963568697</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>20.29939246235563</v>
+        <v>12.17326587131365</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>19.65395051051063</v>
+        <v>5.919077222556304</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>20.15914552836552</v>
+        <v>13.30422595227535</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>20.95638672410693</v>
+        <v>16.3509906135291</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>19.61452016126041</v>
+        <v>17.7947224796271</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>20.33604762152446</v>
+        <v>23.85115835347276</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>20.82926279542075</v>
+        <v>25.96103815790295</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>19.7554383918997</v>
+        <v>7.258168550475013</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>21.03732010217587</v>
+        <v>23.10756576923209</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>21.78696867114353</v>
+        <v>27.78144690560166</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>22.91848624505143</v>
+        <v>-7.537852045085423</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>26.07979810999</v>
+        <v>20.71560266622451</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>27.19903219369149</v>
+        <v>26.52727755027772</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>19.34930481829725</v>
+        <v>4.358011050601455</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>21.39067684242967</v>
+        <v>13.87275093633159</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>22.38616019916366</v>
+        <v>18.16381087330522</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>19.9200497986635</v>
+        <v>11.90875777325707</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>21.81578134922741</v>
+        <v>19.29538069688463</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>21.70949375667096</v>
+        <v>-8.70539204931324</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>25.9689553913809</v>
+        <v>19.54564125714942</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>26.31862497446551</v>
+        <v>25.35690222081403</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>25.44235475212621</v>
+        <v>3.190637071142511</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>27.35449345495071</v>
+        <v>12.70348224840038</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>27.76944383038237</v>
+        <v>16.99435119364748</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>25.01363538346106</v>
+        <v>10.7401561493874</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>26.95135438583308</v>
+        <v>18.12539909587256</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>27.40619868212057</v>
+        <v>21.17215482683159</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>27.91261825018852</v>
+        <v>22.61598037072211</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>30.03520928099154</v>
+        <v>28.67246876951297</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>30.21723055957727</v>
+        <v>30.78234761699512</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>28.11446899210717</v>
+        <v>12.07930156191217</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>31.7678097534194</v>
+        <v>27.92885685457257</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>32.01596588667356</v>
+        <v>32.60272892960152</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>25.34196232100192</v>
+        <v>-2.71674381969833</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>33.71618962342248</v>
+        <v>25.53693039986613</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>35.06276968703558</v>
+        <v>31.34860132694823</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>32.25495244128962</v>
+        <v>9.179560714145374</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>37.40246392506715</v>
+        <v>18.69441987196681</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>38.27212554964055</v>
+        <v>22.98546484691108</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>30.90461828342639</v>
+        <v>16.73040535342168</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>35.86602412280786</v>
+        <v>24.11712250142418</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>19.67575739522193</v>
+        <v>-5.884992099286272</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>23.92746726082154</v>
+        <v>22.36604666638912</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>24.36384577990198</v>
+        <v>28.17729467812794</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>23.5557312019545</v>
+        <v>6.011234316568768</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>25.49951298632002</v>
+        <v>15.52411052932573</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>25.98778213150082</v>
+        <v>19.81496716665786</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>23.2427623341831</v>
+        <v>13.56076891643782</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>25.21715323643907</v>
+        <v>20.94603809864234</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>25.76042717134521</v>
+        <v>23.99278694803284</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>25.92557708023794</v>
+        <v>25.43662016313963</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>28.05846872371148</v>
+        <v>31.49311433321189</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>28.27468458547626</v>
+        <v>33.60298986661562</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>26.19236960632842</v>
+        <v>14.899908196773</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.85610795594125</v>
+        <v>30.74949035982682</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>30.1524107452685</v>
+        <v>35.42335163185223</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>22.9702889843295</v>
+        <v>0.1039346339721092</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>31.30367865646323</v>
+        <v>28.35761431163915</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>32.86340808366568</v>
+        <v>34.16927228599466</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.61930370351768</v>
+        <v>12.00043648113715</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>34.8152401081211</v>
+        <v>21.51532667349634</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>35.80610152590708</v>
+        <v>25.80635934047505</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>28.36149726936601</v>
+        <v>19.55129664284559</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>33.36656609196897</v>
+        <v>26.93804002591239</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>18.33405055197231</v>
+        <v>-11.51772719341673</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>20.83547586162045</v>
+        <v>16.73322148526584</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>21.64095463449836</v>
+        <v>22.54451085459889</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>20.34148617938119</v>
+        <v>0.3781118358096833</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>21.78473024088136</v>
+        <v>9.890919249467039</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>22.32368272761079</v>
+        <v>14.18182123231063</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>20.25395504730599</v>
+        <v>7.927565928429409</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>21.67900845330567</v>
+        <v>15.31277851768639</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>22.30411729037129</v>
+        <v>18.3595588491065</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>21.73045849095073</v>
+        <v>19.80331755575921</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>23.08602183043072</v>
+        <v>25.85978764761169</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>23.4924807691174</v>
+        <v>27.96967952660018</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>22.16249393234001</v>
+        <v>9.266685688163854</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>24.43034066225869</v>
+        <v>25.1161839051076</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>25.08190499877126</v>
+        <v>29.79008841971652</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>22.71492251375122</v>
+        <v>-5.529366955887006</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>27.54396034834141</v>
+        <v>22.7242226310219</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.43170839519334</v>
+        <v>28.53592196456257</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>26.01611523140438</v>
+        <v>6.366747466684025</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.61392063370813</v>
+        <v>15.88156885876354</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>30.76092370472463</v>
+        <v>20.17264687182931</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>25.2152443314828</v>
+        <v>13.9175271143366</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.78342409217684</v>
+        <v>21.30421390300203</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>22.90462081196358</v>
+        <v>22.34224920685947</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>22.51852845411341</v>
+        <v>23.78658468806666</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>24.1583088201686</v>
+        <v>29.84388799646715</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>24.75386224241611</v>
+        <v>31.95393228641613</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>22.84866020536037</v>
+        <v>13.2493497314259</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>25.53863584327615</v>
+        <v>29.1006065084151</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>26.43406178549436</v>
+        <v>33.77496440878165</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>24.51246877035212</v>
+        <v>1.324798695781261</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>27.76186094157009</v>
+        <v>29.57807289939738</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.07469232153048</v>
+        <v>35.38960087048665</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>20.55320823318652</v>
+        <v>13.22127810689674</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>22.73729933836972</v>
+        <v>22.7363359697267</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>23.85416130163608</v>
+        <v>27.02735103629673</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>21.26966233349258</v>
+        <v>20.77224559744557</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>23.29708970485679</v>
+        <v>28.15911960470007</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>24.50508445667987</v>
+        <v>31.20592226726624</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>23.70351090632346</v>
+        <v>32.65093585364682</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>25.35587340538029</v>
+        <v>38.70831311502705</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>26.07794891730097</v>
+        <v>40.81831806199725</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>23.83890358271563</v>
+        <v>22.11382476214485</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>26.51668796325062</v>
+        <v>37.96516861286839</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>27.62646308314752</v>
+        <v>42.63948686993761</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>36.74963963227667</v>
+        <v>27.16398208181668</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>40.16667831312203</v>
+        <v>28.60841124427689</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>43.96848001254936</v>
+        <v>34.66576708150374</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>44.74964949262871</v>
+        <v>36.77581041487949</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>40.51086378911157</v>
+        <v>18.07105139948042</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>46.61344542357862</v>
+        <v>33.92246626185713</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>47.91202502007501</v>
+        <v>38.59681510272785</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>31.9272522416478</v>
+        <v>6.145984716407362</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>40.55733173191851</v>
+        <v>34.39947842455215</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>41.8029318047402</v>
+        <v>40.21100243860437</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>41.32210812725324</v>
+        <v>18.04290556435874</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>46.58326130694604</v>
+        <v>27.5580826983231</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>47.45075256867597</v>
+        <v>31.84908280325576</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>39.2881730075821</v>
+        <v>25.59397097386543</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>44.31571393677052</v>
+        <v>32.98093920466565</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>45.19746668262747</v>
+        <v>36.02773293804191</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>50.38657207169046</v>
+        <v>37.4728402049527</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>54.19222526954466</v>
+        <v>43.53026999424342</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>54.87269756384359</v>
+        <v>45.64027398483845</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>50.7060434932431</v>
+        <v>26.93560422676612</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>56.79154561791258</v>
+        <v>42.78710616144847</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>57.89647405033516</v>
+        <v>47.46141535841216</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>34.38055231672881</v>
+        <v>29.98489272498794</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>37.56246616277227</v>
+        <v>31.42932955421734</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>41.37196223006808</v>
+        <v>37.48669116176664</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>42.23782413628822</v>
+        <v>39.59673118105705</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>38.02244299053918</v>
+        <v>20.89193654872609</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>44.12615148116377</v>
+        <v>36.74337828218209</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>45.56074584016498</v>
+        <v>41.41771631902859</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>30.09584570493713</v>
+        <v>8.966691004130531</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>38.66891806239558</v>
+        <v>37.22019017004161</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>40.13086626357919</v>
+        <v>43.03170123100163</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>39.20614746020301</v>
+        <v>20.86380916353151</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>44.51832170734912</v>
+        <v>30.37901733068734</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>45.49880471650054</v>
+        <v>34.67000512748573</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>37.27716040992642</v>
+        <v>28.41489009617349</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>42.3429284818302</v>
+        <v>35.80188456099993</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>43.35542826823824</v>
+        <v>38.84867141309028</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>48.25704626393801</v>
+        <v>40.29378634366933</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>52.08228845608616</v>
+        <v>46.35122190286095</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>52.83714762552721</v>
+        <v>48.46122257879777</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>48.64021677321263</v>
+        <v>29.7565172050465</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>54.74901700282005</v>
+        <v>45.608046009841</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>55.97160452549133</v>
+        <v>50.28234440205447</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>30.07596853118855</v>
+        <v>24.35109808431876</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>30.07185025555756</v>
+        <v>25.79546040430851</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>32.62869132845081</v>
+        <v>31.85279793383027</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>33.51615990384116</v>
+        <v>33.96285429929251</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>30.14427105994272</v>
+        <v>15.25814750402058</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>34.18978341668179</v>
+        <v>31.10950528820442</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>35.63022726266806</v>
+        <v>35.78388656941488</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.85370796012616</v>
+        <v>3.333394849013054</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>34.74080914045511</v>
+        <v>31.58680392685026</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>36.5725698742142</v>
+        <v>37.39835634652921</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>34.93204857931804</v>
+        <v>15.23012558832884</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>38.69864032213624</v>
+        <v>24.74526495789187</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>39.80629736417109</v>
+        <v>29.03629809968388</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>33.64436535621082</v>
+        <v>22.78112600609357</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>37.33097809079456</v>
+        <v>30.16806387925678</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>38.59478633677413</v>
+        <v>33.21488221258924</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>39.64393105200953</v>
+        <v>34.65992263783071</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>42.29697973188362</v>
+        <v>40.71733412018555</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>43.15992903125291</v>
+        <v>42.82735114209343</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>39.47716007190315</v>
+        <v>24.12273360202969</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>43.66526178361865</v>
+        <v>39.97417846051176</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>45.06538493889006</v>
+        <v>44.64852009687534</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>31.62295220825044</v>
+        <v>0.9283078581935129</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>31.62295205303234</v>
+        <v>29.17948348020295</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>31.6229521147973</v>
+        <v>34.99086440382539</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>31.6229271788237</v>
+        <v>12.82549083181605</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>31.62292663925496</v>
+        <v>22.3385470026826</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>31.62292670365756</v>
+        <v>26.62951568815343</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>31.62293369350224</v>
+        <v>20.37506684095477</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>31.62293226594956</v>
+        <v>27.76044396203699</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>31.62293233699459</v>
+        <v>30.8072948833976</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>31.62292801390923</v>
+        <v>32.25130857647853</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>31.62292871924465</v>
+        <v>38.3078943881528</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>31.62292874733332</v>
+        <v>40.41779369192225</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>31.62293275755668</v>
+        <v>21.71457669159086</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>31.62293429976846</v>
+        <v>37.56444282649634</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>31.62293433720992</v>
+        <v>42.23834916942869</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>31.6228986150672</v>
+        <v>6.915451459001908</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>31.62290118707945</v>
+        <v>35.16926795148638</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>31.62290410675001</v>
+        <v>40.98105881385525</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>31.62285964949967</v>
+        <v>18.8129097847303</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>31.62286098693857</v>
+        <v>28.32797992393476</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>31.62286322944323</v>
+        <v>32.61912460964388</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>31.62286947824256</v>
+        <v>26.36381130228254</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>31.62286987498485</v>
+        <v>33.7506626122507</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>31.6227515970827</v>
+        <v>5.749022387666152</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>31.62275477900501</v>
+        <v>34.00041750256774</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>31.62275486936606</v>
+        <v>39.81179446782287</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>31.62272303312178</v>
+        <v>17.64664676833488</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>31.62272472806687</v>
+        <v>27.15982220197586</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>31.62272479442457</v>
+        <v>31.45077592316884</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>31.62273520023404</v>
+        <v>25.19632068543704</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>31.62273583233661</v>
+        <v>32.58179202471556</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>31.62273588582958</v>
+        <v>35.62863401475281</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>31.62272856135684</v>
+        <v>37.07274138870375</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>31.62273048765437</v>
+        <v>43.12937972538632</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>31.62273055654092</v>
+        <v>45.23927807192283</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>31.6227456938357</v>
+        <v>26.53588462181674</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>31.62274905530373</v>
+        <v>42.38590883278048</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>31.62274917199373</v>
+        <v>47.05980611342338</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>31.62296491540552</v>
+        <v>11.73673459425138</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>31.62298031635231</v>
+        <v>39.99077059535123</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>31.62298672021418</v>
+        <v>45.80255750070805</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>31.62298694716677</v>
+        <v>23.63463436556604</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>31.62299872247679</v>
+        <v>33.14982377886233</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>31.62300267953546</v>
+        <v>37.44095350091798</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>31.62298404403865</v>
+        <v>31.18563380506223</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>31.62299546498948</v>
+        <v>38.57257934020058</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>31.62275124707717</v>
+        <v>8.56945936188297</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>31.62275440898111</v>
+        <v>36.82085993542578</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>31.6227545297629</v>
+        <v>42.63222394822444</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>31.622722661049</v>
+        <v>20.46728103675455</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>31.62272434228421</v>
+        <v>29.9804875058363</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>31.62272443071321</v>
+        <v>34.27142891836409</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>31.62273482694514</v>
+        <v>28.01697047680566</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>31.62273544776846</v>
+        <v>35.40246805095408</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>31.62273552294997</v>
+        <v>38.44930315910731</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>31.62272821070496</v>
+        <v>39.89341820491845</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>31.62273012225094</v>
+        <v>45.95006231239231</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>31.62273020941606</v>
+        <v>48.05995734455824</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>31.62274537520555</v>
+        <v>29.35652827999591</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>31.62274871150816</v>
+        <v>45.20657936046198</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>31.62274885838735</v>
+        <v>49.88046583769719</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>31.62294719574208</v>
+        <v>14.55745008009612</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>31.62296123197697</v>
+        <v>42.81149153869203</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>31.62296940573465</v>
+        <v>48.62326549097427</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>31.62296621091349</v>
+        <v>26.45554716418165</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>31.62297714340304</v>
+        <v>35.97076761109063</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>31.62298220481102</v>
+        <v>40.2618850249522</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>31.62296346821868</v>
+        <v>34.00656212724844</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>31.62297412738608</v>
+        <v>41.39353389678227</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>31.6228823623944</v>
+        <v>2.936621799115166</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>31.6228840895568</v>
+        <v>31.1879322871125</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>31.622884486339</v>
+        <v>36.99933765855631</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>31.62286730124179</v>
+        <v>14.83405608821224</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>31.62286821907876</v>
+        <v>24.34719375804148</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>31.62286851481636</v>
+        <v>28.63818051796759</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>31.62287368129281</v>
+        <v>22.38366501673941</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>31.62287401285009</v>
+        <v>29.76910599849746</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>31.62287436288232</v>
+        <v>32.8159725902327</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>31.62287076193385</v>
+        <v>34.26001312479011</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>31.62287179127293</v>
+        <v>40.31663315471597</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>31.62287191850678</v>
+        <v>42.426544533517</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>31.62288022150008</v>
+        <v>23.72320329990314</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>31.62288201708071</v>
+        <v>39.57317043470639</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>31.62288218826777</v>
+        <v>44.24710015632886</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>31.62292210210013</v>
+        <v>8.924046015384171</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>31.62292854858804</v>
+        <v>37.17799738423864</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>31.62293971794046</v>
+        <v>42.98981269697229</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>31.62291890729604</v>
+        <v>20.82175567556076</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>31.62292385752587</v>
+        <v>30.33690732186322</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>31.62293140291154</v>
+        <v>34.62807008392642</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>31.62292130887922</v>
+        <v>28.37269011955582</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>31.62292590647897</v>
+        <v>35.75960529561778</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>31.62287258654769</v>
+        <v>36.79761736444184</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>31.62286273625938</v>
+        <v>38.24223469248668</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>31.62286432006156</v>
+        <v>44.29968793179783</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>31.62286482121488</v>
+        <v>46.40975170991963</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>31.62287039910839</v>
+        <v>27.70482181380485</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>31.62287318127557</v>
+        <v>43.55654747359629</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>31.62287357511623</v>
+        <v>48.23093055982324</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>31.622900408415</v>
+        <v>15.77670079587981</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>31.62290298051161</v>
+        <v>44.03033673109051</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>31.62290591088877</v>
+        <v>49.84198067581551</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>31.62286197034226</v>
+        <v>27.67477539826493</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>31.62286332523068</v>
+        <v>37.19016348420437</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>31.62286557469336</v>
+        <v>41.48126330069679</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>31.62287166403553</v>
+        <v>35.22589764074358</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>31.62287209523995</v>
+        <v>42.61300000710273</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>31.6228748141546</v>
+        <v>45.65988891008281</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>31.62286504956793</v>
+        <v>47.10518438253892</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>31.62286662006684</v>
+        <v>53.16271155969887</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>31.62286712756368</v>
+        <v>55.27273599419389</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>31.62287261357103</v>
+        <v>36.56789540853445</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>31.62287536458885</v>
+        <v>52.41970808877634</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>31.62287576895426</v>
+        <v>57.09405153531564</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>31.62299899579518</v>
+        <v>41.61952516187521</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>31.6230056993788</v>
+        <v>43.06423617473261</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>31.62301406283298</v>
+        <v>49.12174194318252</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>31.62301820516685</v>
+        <v>51.23180476420098</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>31.62301027332157</v>
+        <v>32.52669840563383</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>31.62302349009672</v>
+        <v>48.37858215317588</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>31.62303052435914</v>
+        <v>53.05295617854038</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>31.62301112890641</v>
+        <v>20.59806171618968</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>31.623027810087</v>
+        <v>48.85191715684935</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>31.62303430317917</v>
+        <v>54.66355714405902</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>31.62304301478052</v>
+        <v>32.49657776356342</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>31.62305614965321</v>
+        <v>42.01208512248625</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>31.62305980753346</v>
+        <v>46.30316997561849</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>31.62303637516935</v>
+        <v>40.04779793001658</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>31.62304907855812</v>
+        <v>47.43499452056685</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>31.6230526444727</v>
+        <v>50.48187449352324</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>31.6230656633721</v>
+        <v>51.92726364934808</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>31.62307483144153</v>
+        <v>57.98484335491649</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>31.62307837144949</v>
+        <v>60.09486683263786</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>31.62306854582542</v>
+        <v>41.38984978674976</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>31.62308296964615</v>
+        <v>57.24182055311903</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>31.62308891822314</v>
+        <v>61.91615493843208</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>31.62297875386607</v>
+        <v>44.44047283691928</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>31.62298608313962</v>
+        <v>45.88519151633259</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>31.62299358258388</v>
+        <v>51.94270305502389</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>31.62299867016421</v>
+        <v>54.0527625617086</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>31.62299233067572</v>
+        <v>35.34762058686963</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>31.62300408291137</v>
+        <v>51.19953120430839</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>31.62301269001978</v>
+        <v>55.87389442544222</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>31.62299604347593</v>
+        <v>23.41880503738501</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>31.62301135759864</v>
+        <v>51.67266593507677</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>31.6230194594876</v>
+        <v>57.48429296904906</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>31.62302474724273</v>
+        <v>35.31751839504373</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>31.62303711222715</v>
+        <v>44.83305678604811</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>31.6230416961783</v>
+        <v>49.12412933042717</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>31.62301844666235</v>
+        <v>42.86875408595515</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>31.62303039512827</v>
+        <v>50.25597690948425</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>31.62303491559868</v>
+        <v>53.30285000064303</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>31.62304816388986</v>
+        <v>54.74824682073561</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>31.62305659541178</v>
+        <v>60.80583229599163</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>31.62306092111219</v>
+        <v>62.91585245877966</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>31.62305241905799</v>
+        <v>44.21079979755584</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>31.62306560636753</v>
+        <v>60.06279743312221</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>31.623072857246</v>
+        <v>64.7371210131964</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>31.62293436094998</v>
+        <v>38.80657571956474</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>31.62292813429591</v>
+        <v>40.25121988788644</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>31.62293110699427</v>
+        <v>46.30870734858727</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>31.62293604495928</v>
+        <v>48.41878320233943</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>31.62293416884258</v>
+        <v>29.71372906347356</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>31.62293877396667</v>
+        <v>45.56555573201863</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>31.62294649237812</v>
+        <v>50.2399621990995</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>31.62292870515781</v>
+        <v>17.78540641152595</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>31.62293446990189</v>
+        <v>46.03917722243134</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>31.62294627936523</v>
+        <v>51.85084561599249</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>31.62292203939321</v>
+        <v>29.68373234990279</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>31.62292706935989</v>
+        <v>39.19920194369988</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>31.62293451261724</v>
+        <v>43.49031983512268</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>31.62292542211383</v>
+        <v>37.2348875215225</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>31.6229299639572</v>
+        <v>44.62205375444487</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>31.62293846336561</v>
+        <v>47.66895832820806</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>31.62292953204332</v>
+        <v>49.11428064042432</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>31.6229328352555</v>
+        <v>55.17184203899146</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>31.62293741995175</v>
+        <v>57.28187854877851</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>31.62293455564165</v>
+        <v>38.57691372109512</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>31.62293976479372</v>
+        <v>54.4288274107133</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>31.62294684006168</v>
+        <v>59.10319423632072</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/additive/ranking_test1/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.08445951097005633</v>
+        <v>0.08445951091787407</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28.33604017560138</v>
+        <v>28.33604017553623</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>34.14752251119362</v>
+        <v>34.14752251114383</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>11.98171179488075</v>
+        <v>11.9817117949036</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>21.49488621179839</v>
+        <v>21.49488621184967</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.7859376248193</v>
+        <v>25.78593762487797</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>19.53139649070724</v>
+        <v>19.53139649072134</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.91686936783069</v>
+        <v>26.91686936777237</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.9637771640116</v>
+        <v>29.96377716403979</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>31.40777289510445</v>
+        <v>31.40777289510695</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>37.46443869770915</v>
+        <v>37.46443869772325</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>39.57437988242337</v>
+        <v>39.57437988241188</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>20.87087683141258</v>
+        <v>20.87087683140201</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>36.72094405740129</v>
+        <v>36.72094405743369</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>41.39495002110582</v>
+        <v>41.39495002109832</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6.071810382719129</v>
+        <v>6.071810382677178</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>34.32603196391833</v>
+        <v>34.32603196391788</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>40.13792425207246</v>
+        <v>40.13792425211521</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>17.96933802921863</v>
+        <v>17.96933802924648</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>27.48452644842357</v>
+        <v>27.48452644849247</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>31.77575387242096</v>
+        <v>31.77575387243187</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>25.52034825756571</v>
+        <v>25.52034825762517</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>32.90729534873399</v>
+        <v>32.90729534874774</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4.905238034774449</v>
+        <v>4.905238034744208</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>33.15703819557357</v>
+        <v>33.15703819562575</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>38.96851657331306</v>
+        <v>38.96851657331386</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>16.80293173232699</v>
+        <v>16.80293173233961</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26.31622541385978</v>
+        <v>26.31622541378758</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>30.6072618629373</v>
+        <v>30.60726186287659</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>24.35271433707747</v>
+        <v>24.35271433709145</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>31.73828143351293</v>
+        <v>31.73828143351327</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.78518029897632</v>
+        <v>34.78518029889936</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>36.22926971184561</v>
+        <v>36.22926971187199</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>42.28598804095586</v>
+        <v>42.28598804094779</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>44.39592826830333</v>
+        <v>44.39592826824535</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>25.69224876462554</v>
+        <v>25.6922487646003</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>41.54247406895772</v>
+        <v>41.54247406895761</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>46.21647097065554</v>
+        <v>46.21647097063769</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>10.89315752256275</v>
+        <v>10.89315752261709</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>39.14759861586979</v>
+        <v>39.14759861587536</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>44.95948694707565</v>
+        <v>44.95948694708623</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>22.79112662110149</v>
+        <v>22.79112662106341</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>32.30643431642918</v>
+        <v>32.3064343164119</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36.59764677680514</v>
+        <v>36.59764677676876</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>30.34223477261353</v>
+        <v>30.34223477258204</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>37.72927609072949</v>
+        <v>37.72927609068118</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>7.725715097664967</v>
+        <v>7.725715097650756</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>35.97752071713203</v>
+        <v>35.9775207171509</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>41.78898614239765</v>
+        <v>41.78898614239902</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>19.62360609242521</v>
+        <v>19.62360609236382</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.13693080992673</v>
+        <v>29.13693080989501</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>33.42795495033213</v>
+        <v>33.42795495032565</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>27.17340422033417</v>
+        <v>27.17340422033008</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>34.55899755213179</v>
+        <v>34.55899755207631</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>37.60588953570252</v>
+        <v>37.60588953561919</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>39.04998662025898</v>
+        <v>39.04998662027126</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>45.10671072002445</v>
+        <v>45.10671072004275</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>47.21664763337399</v>
+        <v>47.21664763335261</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>28.51293251430977</v>
+        <v>28.51293251432421</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>44.36318468847478</v>
+        <v>44.3631846884259</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>49.03717078666737</v>
+        <v>49.03717078660552</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>13.7139131008988</v>
+        <v>13.7139131009611</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>41.96835965170803</v>
+        <v>41.96835965169019</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>47.78023502966662</v>
+        <v>47.78023502967446</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>25.61207951554227</v>
+        <v>25.61207951541244</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>35.12741824513589</v>
+        <v>35.12741824509292</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>39.41861839726014</v>
+        <v>39.41861839716669</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>33.16320319073325</v>
+        <v>33.16320319073677</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>40.55027074335246</v>
+        <v>40.55027074337065</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>2.092794671851699</v>
+        <v>2.092794671871708</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>30.34451020419201</v>
+        <v>30.34451020423919</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>36.15601698854037</v>
+        <v>36.15601698858027</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>13.99029827415504</v>
+        <v>13.99029827418006</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>23.50355419155515</v>
+        <v>23.50355419154571</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>27.79462367989149</v>
+        <v>27.79462367991139</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>21.54001589017285</v>
+        <v>21.54001589016068</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>28.92555262840481</v>
+        <v>28.92555262836684</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>31.97247609570432</v>
+        <v>31.97247609567226</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>33.41649866801047</v>
+        <v>33.41649866792907</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>39.47319868980865</v>
+        <v>39.47319868984173</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>41.58315194968916</v>
+        <v>41.58315194966324</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>22.87952466346619</v>
+        <v>22.87952466346562</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>38.72969289080297</v>
+        <v>38.72969289076477</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>43.40372223371671</v>
+        <v>43.40372223372956</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>8.080426163624203</v>
+        <v>8.080426163686958</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>36.33478262318543</v>
+        <v>36.33478262317281</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>42.14669936204152</v>
+        <v>42.14669936209632</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>19.97820514733562</v>
+        <v>19.97820514738519</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.49347507527464</v>
+        <v>29.49347507524553</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>33.78472057582812</v>
+        <v>33.78472057585416</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>27.52924830322238</v>
+        <v>27.52924830318566</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>34.91625926141135</v>
+        <v>34.91625926141146</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>35.95430698337348</v>
+        <v>35.95430698339724</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>37.39890635193238</v>
+        <v>37.39890635193147</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>43.45643959831668</v>
+        <v>43.456439598316</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>45.56654526293105</v>
+        <v>45.56654526300438</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>26.86132927893741</v>
+        <v>26.86132927893036</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>42.71325606470052</v>
+        <v>42.71325606478056</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>47.38773878679056</v>
+        <v>47.38773878681648</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>14.93329511016268</v>
+        <v>14.93329511018042</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>43.187336137639</v>
+        <v>43.18733613769084</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>48.99908150601946</v>
+        <v>48.99908150601934</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>26.83143904816925</v>
+        <v>26.83143904821075</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>36.34694542233033</v>
+        <v>36.3469454223799</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>40.63812797649164</v>
+        <v>40.63812797650358</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>34.38267000743154</v>
+        <v>34.38267000746371</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>41.7698681622687</v>
+        <v>41.76986816230576</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>44.81681394709435</v>
+        <v>44.81681394708742</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>46.26209146654023</v>
+        <v>46.26209146660697</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>52.31969865367953</v>
+        <v>52.31969865369545</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>54.4297649744145</v>
+        <v>54.429764974451</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>35.72463829815965</v>
+        <v>35.7246382981816</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>51.57665211170704</v>
+        <v>51.57665211165713</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>56.25109519328144</v>
+        <v>56.25109519326404</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>40.77627879491431</v>
+        <v>40.77627879490556</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>42.22097184916797</v>
+        <v>42.22097184917582</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>48.27855762556963</v>
+        <v>48.27855762550437</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>50.38866233335475</v>
+        <v>50.38866233334202</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>31.68326988464387</v>
+        <v>31.68326988465592</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>47.53535475983004</v>
+        <v>47.53535475982992</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>52.20982842186661</v>
+        <v>52.20982842181602</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>19.75472003777427</v>
+        <v>19.75472003779019</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>48.00898057375591</v>
+        <v>48.0089805737558</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>53.8207219849505</v>
+        <v>53.82072198496233</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>31.65330542703621</v>
+        <v>31.6533054270062</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>41.16893107626286</v>
+        <v>41.16893107625501</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>45.46009866714244</v>
+        <v>45.46009866712107</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>39.20463431144524</v>
+        <v>39.20463431144513</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>46.59192669196668</v>
+        <v>46.59192669193974</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>49.63886354690212</v>
+        <v>49.63886354693123</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>51.08423475142749</v>
+        <v>51.0842347512971</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>57.14189446786916</v>
+        <v>57.14189446778798</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>59.25195983162494</v>
+        <v>59.25195983161777</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>40.54665669243671</v>
+        <v>40.54665669235383</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>56.39882859383918</v>
+        <v>56.39882859375744</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>61.07326261483102</v>
+        <v>61.07326261480191</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>43.59726656604912</v>
+        <v>43.59726656606299</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>45.04196728738496</v>
+        <v>45.04196728737166</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>51.09955883367329</v>
+        <v>51.09955883364919</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>53.20966022694697</v>
+        <v>53.20966022692128</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>34.50423216152169</v>
+        <v>34.50423216157296</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>50.35634390711662</v>
+        <v>50.35634390703033</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>55.03080676474017</v>
+        <v>55.03080676472937</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>22.57550345200011</v>
+        <v>22.5755034519344</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>50.82976944505831</v>
+        <v>50.82976944503751</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>56.64149790265183</v>
+        <v>56.64149790256156</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>34.47428615502745</v>
+        <v>34.47428615500016</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>43.98994283687725</v>
+        <v>43.989942836871</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>48.28109811891577</v>
+        <v>48.28109811889497</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>42.025630564063</v>
+        <v>42.02563056403742</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>49.41294917796356</v>
+        <v>49.41294917789433</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>52.45987915089845</v>
+        <v>52.45987915094927</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>53.90525801976751</v>
+        <v>53.90525801978433</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>59.96292350568249</v>
+        <v>59.96292350573604</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>62.07298555491978</v>
+        <v>62.07298555493433</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>43.36764679946916</v>
+        <v>43.3676467994296</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>59.21984557080598</v>
+        <v>59.219845570797</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>63.89426878613367</v>
+        <v>63.89426878613583</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>37.96328656803983</v>
+        <v>37.9632865680903</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>39.40791277659353</v>
+        <v>39.40791277664446</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>45.4654802449156</v>
+        <v>45.46548024494141</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>47.57559798523969</v>
+        <v>47.57559798527254</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>28.87025775782875</v>
+        <v>28.8702577577785</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>44.72228555351817</v>
+        <v>44.72228555350737</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>49.39679165706796</v>
+        <v>49.39679165708967</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>16.94202195316152</v>
+        <v>16.94202195316516</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>45.19619785788743</v>
+        <v>45.19619785788823</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>51.00796767563381</v>
+        <v>51.0079676756196</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>28.84041722956918</v>
+        <v>28.84041722956361</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>38.35600511322705</v>
+        <v>38.35600511318589</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>42.64720574296835</v>
+        <v>42.64720574303872</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>36.39168111918978</v>
+        <v>36.39168111924412</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>43.77894314108503</v>
+        <v>43.77894314106911</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>46.82590459709682</v>
+        <v>46.82590459710364</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>48.27120895685253</v>
+        <v>48.27120895682206</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>54.32885036590356</v>
+        <v>54.32885036585501</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>56.43892876185007</v>
+        <v>56.43892876184245</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>37.7336778419369</v>
+        <v>37.73367784187051</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>53.58579266553065</v>
+        <v>53.58579266543527</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>58.26025912716214</v>
+        <v>58.26025912702469</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-9.199179415627121</v>
+        <v>-9.199179415562092</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>19.05247569292622</v>
+        <v>19.05247569289393</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>24.86385893419968</v>
+        <v>24.86385893422719</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>2.697096532764341</v>
+        <v>2.697096532713978</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>12.21016596393813</v>
+        <v>12.2101659639387</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>16.50115752928796</v>
+        <v>16.50115752932184</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>10.24676283421886</v>
+        <v>10.24676283426468</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>17.63218280268016</v>
+        <v>17.63218280275326</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>20.67902386788942</v>
+        <v>20.67902386791989</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>22.12278724973837</v>
+        <v>22.12278724971552</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>28.17943034277992</v>
+        <v>28.17943034279788</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>30.28935357571866</v>
+        <v>30.28935357576561</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>11.58584511944023</v>
+        <v>11.58584511944864</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>27.43581156132232</v>
+        <v>27.43581156141861</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>32.10979026615562</v>
+        <v>32.1097902662385</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-3.21085030942529</v>
+        <v>-3.210850309405281</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.04344575914511</v>
+        <v>25.04344575917467</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>30.85523896078494</v>
+        <v>30.85523896082643</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>8.68570101555256</v>
+        <v>8.685701015549377</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>18.2007844705631</v>
+        <v>18.2007844705897</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>22.49195205540955</v>
+        <v>22.49195205540989</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>16.23669290288556</v>
+        <v>16.23669290283781</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>23.62358710316833</v>
+        <v>23.62358710317253</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>-4.3785139413392</v>
+        <v>-4.378513941351933</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>23.87336066509793</v>
+        <v>23.87336066506177</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.68473994788597</v>
+        <v>29.68473994782253</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>7.518203418682198</v>
+        <v>7.518203418688906</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>17.03139211386267</v>
+        <v>17.03139211388075</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>21.32236871594385</v>
+        <v>21.32236871594794</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>15.06796762570489</v>
+        <v>15.06796762565396</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>22.45348181303812</v>
+        <v>22.45348181299855</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>25.50031394746507</v>
+        <v>25.50031394745086</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>26.94417100990709</v>
+        <v>26.94417100983342</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>33.00086662866156</v>
+        <v>33.00086662865792</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>35.11078890433928</v>
+        <v>35.11078890427641</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>16.40710399700331</v>
+        <v>16.40710399691611</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>32.25722851662929</v>
+        <v>32.25722851665044</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>36.93119815973476</v>
+        <v>36.93119815972759</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>1.61038377878149</v>
+        <v>1.610383778777056</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.8648993610319</v>
+        <v>29.86489936105452</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>35.67668860526883</v>
+        <v>35.67668860524734</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>13.50737655385965</v>
+        <v>13.50737655379007</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>23.02257928357424</v>
+        <v>23.02257928360039</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>27.31373190562861</v>
+        <v>27.31373190563634</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>21.05846636018985</v>
+        <v>21.05846636015585</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>28.44545478702273</v>
+        <v>28.4454547870723</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-1.558054512278112</v>
+        <v>-1.558054512289253</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>26.69382555287869</v>
+        <v>26.69382555290768</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>32.50519188299368</v>
+        <v>32.50519188300289</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>10.33886014638333</v>
+        <v>10.3388601464138</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>19.85207987786826</v>
+        <v>19.85207987783244</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>24.143044171372</v>
+        <v>24.14304417134074</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>17.8886398753185</v>
+        <v>17.88863987528416</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>25.27418029884357</v>
+        <v>25.27418029888745</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>28.32100555141867</v>
+        <v>28.32100555141151</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.76487028543327</v>
+        <v>29.76487028541371</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>35.82157167578473</v>
+        <v>35.8215716757853</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>37.93149063722078</v>
+        <v>37.93149063720987</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>19.22777011443086</v>
+        <v>19.22777011443825</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>35.07792150482189</v>
+        <v>35.07792150483565</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>39.75188034407652</v>
+        <v>39.75188034412404</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>4.431121716880604</v>
+        <v>4.43112171688572</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>32.68564275700133</v>
+        <v>32.68564275696779</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>38.49741904775269</v>
+        <v>38.49741904773598</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>16.32831180864569</v>
+        <v>16.328311808581</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>25.84354557349796</v>
+        <v>25.84354557347726</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>30.1346858873852</v>
+        <v>30.13468588734893</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>23.87941713816665</v>
+        <v>23.87941713816256</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>31.26643180058634</v>
+        <v>31.26643180058293</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-7.190913421711478</v>
+        <v>-7.190913421696699</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>21.06087655543522</v>
+        <v>21.06087655547933</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>26.87228424445002</v>
+        <v>26.87228424444672</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>4.705613842197614</v>
+        <v>4.705613842168624</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>14.21876477389615</v>
+        <v>14.21876477390376</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>18.50977441404141</v>
+        <v>18.5097744140671</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>12.25531306239109</v>
+        <v>12.25531306240246</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>19.64079689206037</v>
+        <v>19.64079689207515</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>22.68765362766701</v>
+        <v>22.68765362769623</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>24.13144385063126</v>
+        <v>24.13144385061251</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>30.18812116255183</v>
+        <v>30.18812116254842</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>32.29805647034775</v>
+        <v>32.29805647036208</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>13.59442377989101</v>
+        <v>13.59442377985781</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.4444912232693</v>
+        <v>29.44449122327271</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>34.11849330674406</v>
+        <v>34.11849330672144</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-1.202303699125331</v>
+        <v>-1.202303699115781</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>27.05212724885516</v>
+        <v>27.05212724879855</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>32.86394490019607</v>
+        <v>32.86394490020471</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>10.69449896046942</v>
+        <v>10.69449896050865</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>20.20966392386809</v>
+        <v>20.20966392389253</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>24.50084958505315</v>
+        <v>24.50084958510636</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>18.24552377340658</v>
+        <v>18.24552377334178</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>25.63248184075346</v>
+        <v>25.63248184076449</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>26.67053200995301</v>
+        <v>26.67053200998928</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>28.11489902883122</v>
+        <v>28.11489902876415</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>34.17240957746581</v>
+        <v>34.17240957748388</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>36.28249729429044</v>
+        <v>36.28249729434763</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>17.57727585713722</v>
+        <v>17.57727585711095</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>33.42910190195173</v>
+        <v>33.42910190194059</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>38.10355736870472</v>
+        <v>38.10355736863935</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>5.651689781618053</v>
+        <v>5.651689781654319</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>33.90580532524994</v>
+        <v>33.9058053252139</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>39.71745161043155</v>
+        <v>39.71745161037197</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>17.54885742192457</v>
+        <v>17.54885742192537</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>27.0642588548985</v>
+        <v>27.06425885487713</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>31.35538156861467</v>
+        <v>31.35538156863024</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>25.10007007662123</v>
+        <v>25.10007007663192</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>32.48721536013645</v>
+        <v>32.48721536016544</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>35.53409441727317</v>
+        <v>35.53409441733138</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>36.9791395695489</v>
+        <v>36.97913956952957</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>43.03672406815449</v>
+        <v>43.03672406809492</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>45.14677244138623</v>
+        <v>45.14677244137201</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>26.44164027782436</v>
+        <v>26.44164027779809</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>42.29355338328103</v>
+        <v>42.29355338330547</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>46.96796920722452</v>
+        <v>46.96796920717382</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>31.49239076372826</v>
+        <v>31.49239076365857</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>32.93685146635605</v>
+        <v>32.9368514663448</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>38.99441454511427</v>
+        <v>38.99441454513155</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>41.10450130555612</v>
+        <v>41.1045013055335</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>22.39910340384402</v>
+        <v>22.39910340386232</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>38.251087537948</v>
+        <v>38.25108753795869</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>42.92553394465333</v>
+        <v>42.92553394466368</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>10.47300166422881</v>
+        <v>10.47300166420801</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>38.72733671800015</v>
+        <v>38.72733671796411</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>44.5389790454112</v>
+        <v>44.53897904536891</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>22.37061075353174</v>
+        <v>22.37061075351389</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>31.88613146058876</v>
+        <v>31.88613146060082</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>36.17723921198817</v>
+        <v>36.17723921204036</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>29.92192132958915</v>
+        <v>29.92192132953378</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>37.30916083846703</v>
+        <v>37.30916083847737</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>40.35603096626821</v>
+        <v>40.35603096626753</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>41.80116980071146</v>
+        <v>41.8011698006728</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>47.8588068289125</v>
+        <v>47.85880682889113</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>49.96885424533114</v>
+        <v>49.96885424532886</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>31.26354562049355</v>
+        <v>31.26354562048741</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>47.11561681347619</v>
+        <v>47.11561681356714</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>51.79002357685781</v>
+        <v>51.79002357688373</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>34.31336089529893</v>
+        <v>34.31336089529518</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>35.75782926520376</v>
+        <v>35.75782926516681</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>41.81539811454591</v>
+        <v>41.81539811453079</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>43.92548156049438</v>
+        <v>43.92548156047585</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>25.22004804166861</v>
+        <v>25.22004804165406</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>41.07205904673922</v>
+        <v>41.07205904676025</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>45.74649464881018</v>
+        <v>45.74649464883473</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>13.29376743759358</v>
+        <v>13.2937674375663</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>41.54810794871137</v>
+        <v>41.54810794872638</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>47.35973732213026</v>
+        <v>47.35973732209809</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>25.19157384123637</v>
+        <v>25.19157384120999</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>34.70712558216778</v>
+        <v>34.70712558215016</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>38.99822102459721</v>
+        <v>38.99822102457413</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>32.74289994118508</v>
+        <v>32.74289994117303</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>40.13016568474789</v>
+        <v>40.13016568477335</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>43.17702893056717</v>
+        <v>43.17702893053056</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>44.62217542927838</v>
+        <v>44.62217542921199</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>50.67981822768386</v>
+        <v>50.67981822762429</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>52.78986232935777</v>
+        <v>52.78986232936936</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>34.08451808793823</v>
+        <v>34.08451808788332</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>49.93661615133826</v>
+        <v>49.93661615126766</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>54.61101210903573</v>
+        <v>54.61101210900743</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>28.67944241897451</v>
+        <v>28.67944241898736</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>30.12383627699533</v>
+        <v>30.1238362769386</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>36.18138104770342</v>
+        <v>36.18138104771672</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>38.29148084052017</v>
+        <v>38.2914808405088</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>19.58613515982163</v>
+        <v>19.58613515978673</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>35.43806221455143</v>
+        <v>35.43806221462362</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>40.11254106245097</v>
+        <v>40.11254106245119</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>7.660347457254922</v>
+        <v>7.660347457335071</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>35.91459787929134</v>
+        <v>35.91459787937217</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>41.72626861283218</v>
+        <v>41.72626861295587</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>19.55776643333352</v>
+        <v>19.55776643334682</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.07324937547751</v>
+        <v>29.07324937548376</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>33.36439016441032</v>
+        <v>33.36439016445261</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>27.1090120165205</v>
+        <v>27.10901201649049</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>34.49622116736121</v>
+        <v>34.49622116735075</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>37.5431158952342</v>
+        <v>37.54311589523056</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>38.98818788636365</v>
+        <v>38.98818788627054</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>45.04580660722943</v>
+        <v>45.04580660725535</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>47.15586705549899</v>
+        <v>47.15586705547251</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>28.45061064925037</v>
+        <v>28.45061064921297</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>44.30262476507946</v>
+        <v>44.302624765108</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>48.97706396829208</v>
+        <v>48.97706396828753</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>0.4106225439229334</v>
+        <v>0.4106225438914421</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>28.66247362843317</v>
+        <v>28.66247362845318</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>34.47390579892667</v>
+        <v>34.47390579888461</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>12.30788749018732</v>
+        <v>12.3078874902021</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>21.82117767806105</v>
+        <v>21.82117767806867</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>26.11217971576671</v>
+        <v>26.11217971571691</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>19.85764658763376</v>
+        <v>19.8576465876424</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>27.24321146898192</v>
+        <v>27.24321146901989</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>30.2900775599978</v>
+        <v>30.29007756002122</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>31.73403723855595</v>
+        <v>31.73403723856266</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>37.79077179679675</v>
+        <v>37.79077179674116</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>39.90069073345635</v>
+        <v>39.90069073343953</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>21.1970209875137</v>
+        <v>21.19702098749688</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>37.04727493831249</v>
+        <v>37.04727493829987</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>41.72122542879615</v>
+        <v>41.7212254288439</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>6.398754944316671</v>
+        <v>6.398754944328722</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>34.65324696922276</v>
+        <v>34.65324696928915</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>40.4650890838228</v>
+        <v>40.46508908375413</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>18.29629527120355</v>
+        <v>18.29629527125085</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>27.81159947763738</v>
+        <v>27.81159947765591</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>32.10277751573094</v>
+        <v>32.10277751577949</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>25.84737993004476</v>
+        <v>25.84737993005283</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>33.23441903776254</v>
+        <v>33.23441903777391</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>5.231404475251431</v>
+        <v>5.231404475294859</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>33.48347505780178</v>
+        <v>33.48347505772617</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>39.29490326913717</v>
+        <v>39.29490326920288</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>17.12911083616346</v>
+        <v>17.12911083622348</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>26.64252028944905</v>
+        <v>26.6425202894877</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>30.93350736245223</v>
+        <v>30.9335073625392</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>24.67896784316438</v>
+        <v>24.67896784308889</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>32.06462694432091</v>
+        <v>32.06462694435002</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>35.11148410354972</v>
+        <v>35.11148410359986</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>36.55553746465669</v>
+        <v>36.55553746459314</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>42.61232454950957</v>
+        <v>42.61232454945387</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>44.72224252858368</v>
+        <v>44.72224252856413</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>26.01839632937308</v>
+        <v>26.01839632923575</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>41.86880835922759</v>
+        <v>41.86880835907969</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>46.5427497869408</v>
+        <v>46.54274978684246</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>11.22010549207867</v>
+        <v>11.22010549209197</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>39.47481703076947</v>
+        <v>39.474817030705</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>45.28665518733701</v>
+        <v>45.28665518731268</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>23.11808727270407</v>
+        <v>23.11808727272203</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>32.63351075545675</v>
+        <v>32.63351075546345</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>36.92467382932703</v>
+        <v>36.92467382935715</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>30.66926985447478</v>
+        <v>30.66926985443215</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>38.05640318916344</v>
+        <v>38.05640318916458</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>8.051890015946675</v>
+        <v>8.051890015976689</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>36.30396605702774</v>
+        <v>36.30396605705673</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>42.11538131596181</v>
+        <v>42.1153813159609</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>19.94979367514143</v>
+        <v>19.9497936751595</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>29.46323416431992</v>
+        <v>29.46323416431583</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>33.75420892857446</v>
+        <v>33.75420892862926</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>27.49966620535483</v>
+        <v>27.49966620534347</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>34.88535154192616</v>
+        <v>34.88535154189035</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>37.93220181919489</v>
+        <v>37.93220181919558</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>39.37626285191411</v>
+        <v>39.37626285187694</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>45.43305570742368</v>
+        <v>45.43305570738048</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>47.54297037219224</v>
+        <v>47.54297037219997</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>28.83908855815807</v>
+        <v>28.83908855809145</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>44.68952745811723</v>
+        <v>44.68952745807233</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>49.36345808192377</v>
+        <v>49.36345808197789</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>14.04086954623788</v>
+        <v>14.04086954629017</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>42.29558654202103</v>
+        <v>42.29558654203979</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>48.10741174505197</v>
+        <v>48.10741174500354</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>25.93904864322847</v>
+        <v>25.93904864335227</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>35.45450316064441</v>
+        <v>35.45450316055835</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>39.74565392581005</v>
+        <v>39.74565392579664</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>33.49024674868949</v>
+        <v>33.49024674868154</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>40.877406318604</v>
+        <v>40.87740631858967</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>2.418966448344555</v>
+        <v>2.418966448333869</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>30.67095240177387</v>
+        <v>30.67095240178308</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>36.48240902030555</v>
+        <v>36.48240902023426</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>14.31648271325557</v>
+        <v>14.31648271325012</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>23.82985440213472</v>
+        <v>23.82985440217406</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>28.1208745146324</v>
+        <v>28.12087451469038</v>
       </c>
     </row>
     <row r="437">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.25190347496196</v>
+        <v>29.25190347497651</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>32.29878523622401</v>
+        <v>32.29878523625732</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>33.74277175668758</v>
+        <v>33.74277175666985</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>39.79954053443087</v>
+        <v>39.79954053441075</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>41.90947154596856</v>
+        <v>41.9094715459622</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>23.20567756418107</v>
+        <v>23.20567756416083</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>39.05603251679097</v>
+        <v>39.05603251672469</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>43.73000638601955</v>
+        <v>43.73000638593394</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>8.407379469366425</v>
+        <v>8.407379469407694</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>36.66200637397103</v>
+        <v>36.66200637399229</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>42.47387293847201</v>
+        <v>42.47387293848235</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>20.30517113517451</v>
+        <v>20.30517113522578</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.82055685071473</v>
+        <v>29.82055685079204</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>34.1117529647946</v>
+        <v>34.11175296485622</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>27.85628872121013</v>
+        <v>27.85628872120808</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>35.24339169646917</v>
+        <v>35.24339169646598</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>36.28138895791299</v>
+        <v>36.28138895795664</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>37.72595227854411</v>
+        <v>37.72595227853194</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>43.7835542875084</v>
+        <v>43.78355428745667</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>45.89363769943484</v>
+        <v>45.8936376994179</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>27.18825500196747</v>
+        <v>27.18825500196008</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>43.04036853325588</v>
+        <v>43.04036853329976</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>47.71479576971453</v>
+        <v>47.71479576976501</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>15.2604134461345</v>
+        <v>15.26041344616031</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>43.51472491180639</v>
+        <v>43.51472491184072</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>49.32642010827815</v>
+        <v>49.32642010830157</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>27.15857006405495</v>
+        <v>27.15857006403346</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>36.67419222565238</v>
+        <v>36.67419222569217</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>40.96532539462928</v>
+        <v>40.96532539465645</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>34.70987546125841</v>
+        <v>34.70987546130252</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>42.09716563225286</v>
+        <v>42.09716563220216</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>45.14406970246998</v>
+        <v>45.144069702446</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>46.58931117773282</v>
+        <v>46.58931117771747</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>52.64698712641164</v>
+        <v>52.6469871264919</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>54.75703119498039</v>
+        <v>54.75703119502086</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>36.05173780578955</v>
+        <v>36.0517378057991</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>51.90393836175381</v>
+        <v>51.90393836178416</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>56.57832595825912</v>
+        <v>56.57832595833995</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>41.10336417845142</v>
+        <v>41.10336417837753</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>42.54802118519817</v>
+        <v>42.54802118513826</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>48.60567572463922</v>
+        <v>48.60567572456089</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>50.71575817914547</v>
+        <v>50.71575817911216</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>32.01019901647383</v>
+        <v>32.01019901643733</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>47.86247063876326</v>
+        <v>47.86247063872825</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>52.53688881352625</v>
+        <v>52.53688881356059</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>20.08184178189945</v>
+        <v>20.08184178194561</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>48.33637275754106</v>
+        <v>48.3363727575206</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>54.14806399574113</v>
+        <v>54.14806399570077</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>31.9804398522401</v>
+        <v>31.98043985224727</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>41.49618128925736</v>
+        <v>41.4961812893009</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>45.7872994944348</v>
+        <v>45.78729949441286</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>39.53184317423368</v>
+        <v>39.53184317420423</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>46.91922757126586</v>
+        <v>46.91922757130974</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>49.96612271099739</v>
+        <v>49.96612271099887</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>51.41145787182754</v>
+        <v>51.41145787173171</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>57.46918635022369</v>
+        <v>57.4691863502122</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>59.57922946131576</v>
+        <v>59.57922946130734</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>40.87375960897871</v>
+        <v>40.87375960889708</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>56.72611825412375</v>
+        <v>56.72611825401712</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>61.40049678904038</v>
+        <v>61.40049678898524</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>43.92436042609811</v>
+        <v>43.92436042607708</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>45.3690250995646</v>
+        <v>45.36902509955687</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>51.42668540915893</v>
+        <v>51.42668540917723</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>53.53676454935474</v>
+        <v>53.53676454931244</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>34.83116976971187</v>
+        <v>34.83116976969664</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>50.68346826249192</v>
+        <v>50.68346826239904</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>55.35787563253437</v>
+        <v>55.35787563250265</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>22.90263367027612</v>
+        <v>22.90263367035025</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>51.1571701032751</v>
+        <v>51.15717010323883</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>56.96884838734284</v>
+        <v>56.96884838729236</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>34.80142905484352</v>
+        <v>34.80142905490013</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>44.317201525056</v>
+        <v>44.31720152504884</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>48.60830742080871</v>
+        <v>48.60830742079211</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>42.35284790216244</v>
+        <v>42.35284790222838</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>49.74025853300939</v>
+        <v>49.74025853293674</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>52.78714679065306</v>
+        <v>52.78714679076231</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>54.23248961506292</v>
+        <v>54.23248961506145</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>60.29022386318284</v>
+        <v>60.29022386314202</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>62.40026365977528</v>
+        <v>62.40026365978029</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>43.69475819153158</v>
+        <v>43.69475819146371</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>59.5471437062175</v>
+        <v>59.54714370619579</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>64.2215114351221</v>
+        <v>64.22151143512573</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>38.29037728818478</v>
+        <v>38.2903772881476</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>39.73496744860163</v>
+        <v>39.73496744860243</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>45.79260367992661</v>
+        <v>45.79260367991763</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>47.90269916770237</v>
+        <v>47.90269916771295</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.19719222577383</v>
+        <v>29.19719222580225</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>45.04940676816748</v>
+        <v>45.04940676820636</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>49.72385738500621</v>
+        <v>49.72385738510034</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>17.26914903277825</v>
+        <v>17.26914903286431</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>45.52359537731363</v>
+        <v>45.52359537736832</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>51.33531502226194</v>
+        <v>51.33531502229594</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.16755699050973</v>
+        <v>29.16755699060125</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>38.683260662145</v>
+        <v>38.68326066218922</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>42.97441190577897</v>
+        <v>42.97441190585014</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>36.71889531820293</v>
+        <v>36.71889531826773</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>44.10624935692406</v>
+        <v>44.10624935696146</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>47.15316909803787</v>
+        <v>47.15316909799137</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>48.59843741293182</v>
+        <v>48.59843741291602</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>54.65614758423701</v>
+        <v>54.65614758423656</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>56.76620372789601</v>
+        <v>56.76620372785792</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>38.06078609447125</v>
+        <v>38.06078609434312</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>53.91308766158281</v>
+        <v>53.91308766161999</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>58.58749863736725</v>
+        <v>58.58749863732462</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-13.52593167329805</v>
+        <v>-13.52593167329862</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>14.72488214042401</v>
+        <v>14.72488214042571</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>20.53614706208609</v>
+        <v>20.53614706212657</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-1.63034395230752</v>
+        <v>-1.630343952291149</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>7.882381963568697</v>
+        <v>7.882381963623722</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>12.17326587131365</v>
+        <v>12.17326587128682</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>5.919077222556304</v>
+        <v>5.919077222573925</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>13.30422595227535</v>
+        <v>13.30422595225659</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>16.3509906135291</v>
+        <v>16.35099061351944</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>17.7947224796271</v>
+        <v>17.79472247958561</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>23.85115835347276</v>
+        <v>23.85115835340182</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>25.96103815790295</v>
+        <v>25.96103815788408</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>7.258168550475013</v>
+        <v>7.258168550467623</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>23.10756576923209</v>
+        <v>23.10756576921731</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>27.78144690560166</v>
+        <v>27.7814469056078</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-7.537852045085423</v>
+        <v>-7.537852045025282</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>20.71560266622451</v>
+        <v>20.71560266623758</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>26.52727755027772</v>
+        <v>26.52727755032161</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>4.358011050601455</v>
+        <v>4.358011050609186</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>13.87275093633159</v>
+        <v>13.87275093633227</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>18.16381087330522</v>
+        <v>18.16381087333523</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>11.90875777325707</v>
+        <v>11.9087577733188</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>19.29538069688463</v>
+        <v>19.2953806969409</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-8.70539204931324</v>
+        <v>-8.705392049353371</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>19.54564125714942</v>
+        <v>19.5456412571534</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.35690222081403</v>
+        <v>25.35690222076128</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>3.190637071142511</v>
+        <v>3.190637071089078</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>12.70348224840038</v>
+        <v>12.70348224835059</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>16.99435119364748</v>
+        <v>16.99435119363054</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>10.7401561493874</v>
+        <v>10.74015614939638</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>18.12539909587256</v>
+        <v>18.1253990958729</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>21.17215482683159</v>
+        <v>21.17215482682534</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>22.61598037072211</v>
+        <v>22.61598037070562</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>28.67246876951297</v>
+        <v>28.67246876947329</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>30.78234761699512</v>
+        <v>30.78234761692793</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>12.07930156191217</v>
+        <v>12.07930156189</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>27.92885685457257</v>
+        <v>27.92885685454369</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>32.60272892960152</v>
+        <v>32.60272892963619</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-2.71674381969833</v>
+        <v>-2.716743819740849</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>25.53693039986613</v>
+        <v>25.53693039986215</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>31.34860132694823</v>
+        <v>31.34860132693118</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>9.179560714145374</v>
+        <v>9.179560714121955</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>18.69441987196681</v>
+        <v>18.69441987195908</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>22.98546484691108</v>
+        <v>22.98546484688459</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>16.73040535342168</v>
+        <v>16.73040535344965</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>24.11712250142418</v>
+        <v>24.11712250138292</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-5.884992099286272</v>
+        <v>-5.884992099290024</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>22.36604666638912</v>
+        <v>22.36604666641538</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.17729467812794</v>
+        <v>28.17729467814136</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>6.011234316568768</v>
+        <v>6.011234316598667</v>
       </c>
     </row>
     <row r="592">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>19.81496716665786</v>
+        <v>19.8149671666507</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>13.56076891643782</v>
+        <v>13.56076891648284</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>20.94603809864234</v>
+        <v>20.94603809864746</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>23.99278694803284</v>
+        <v>23.99278694809104</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>25.43662016313963</v>
+        <v>25.43662016306858</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>31.49311433321189</v>
+        <v>31.49311433320154</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>33.60298986661562</v>
+        <v>33.60298986658822</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>14.899908196773</v>
+        <v>14.89990819674083</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>30.74949035982682</v>
+        <v>30.74949035983477</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>35.42335163185223</v>
+        <v>35.42335163185928</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>0.1039346339721092</v>
+        <v>0.1039346340012131</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.35761431163915</v>
+        <v>28.35761431163733</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>34.16927228599466</v>
+        <v>34.16927228600216</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>12.00043648113715</v>
+        <v>12.00043648115136</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>21.51532667349634</v>
+        <v>21.51532667349077</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>25.80635934047505</v>
+        <v>25.80635934050233</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>19.55129664284559</v>
+        <v>19.55129664283866</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>26.93804002591239</v>
+        <v>26.93804002594002</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-11.51772719341673</v>
+        <v>-11.51772719339728</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>16.73322148526584</v>
+        <v>16.7332214852514</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>22.54451085459889</v>
+        <v>22.54451085462549</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>0.3781118358096833</v>
+        <v>0.3781118358374229</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>9.890919249467039</v>
+        <v>9.890919249548553</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>14.18182123231063</v>
+        <v>14.18182123230154</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>7.927565928429409</v>
+        <v>7.927565928441688</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>15.31277851768639</v>
+        <v>15.31277851768468</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>18.3595588491065</v>
+        <v>18.35955884911332</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>19.80331755575921</v>
+        <v>19.80331755572124</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>25.85978764761169</v>
+        <v>25.85978764755792</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>27.96967952660018</v>
+        <v>27.96967952663588</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>9.266685688163854</v>
+        <v>9.266685688128952</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>25.1161839051076</v>
+        <v>25.1161839051649</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.79008841971652</v>
+        <v>29.79008841980031</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-5.529366955887006</v>
+        <v>-5.529366955894169</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>22.7242226310219</v>
+        <v>22.72422263104759</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.53592196456257</v>
+        <v>28.53592196456382</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>6.366747466684025</v>
+        <v>6.366747466679932</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>15.88156885876354</v>
+        <v>15.8815688587383</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>20.17264687182931</v>
+        <v>20.17264687181748</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>13.9175271143366</v>
+        <v>13.91752711428681</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>21.30421390300203</v>
+        <v>21.30421390301306</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>22.34224920685947</v>
+        <v>22.34224920690085</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>23.78658468806666</v>
+        <v>23.78658468811452</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.84388799646715</v>
+        <v>29.84388799645908</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>31.95393228641613</v>
+        <v>31.95393228637747</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>13.2493497314259</v>
+        <v>13.24934973146046</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.1006065084151</v>
+        <v>29.10060650839646</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>33.77496440878165</v>
+        <v>33.77496440878915</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>1.324798695781261</v>
+        <v>1.32479869584504</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.57807289939738</v>
+        <v>29.57807289942989</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>35.38960087048665</v>
+        <v>35.38960087053236</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>13.22127810689674</v>
+        <v>13.22127810692994</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>22.7363359697267</v>
+        <v>22.73633596973261</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>27.02735103629673</v>
+        <v>27.02735103636972</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>20.77224559744557</v>
+        <v>20.77224559741612</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.15911960470007</v>
+        <v>28.1591196047161</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>31.20592226726624</v>
+        <v>31.2059222672609</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>32.65093585364682</v>
+        <v>32.65093585364625</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>38.70831311502705</v>
+        <v>38.70831311508946</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>40.81831806199725</v>
+        <v>40.81831806200601</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>22.11382476214485</v>
+        <v>22.11382476213996</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>37.96516861286839</v>
+        <v>37.96516861287999</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>42.63948686993761</v>
+        <v>42.63948686992362</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>27.16398208181668</v>
+        <v>27.16398208177484</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>28.60841124427689</v>
+        <v>28.6084112442255</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>34.66576708150374</v>
+        <v>34.66576708148703</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>36.77581041487949</v>
+        <v>36.77581041489041</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>18.07105139948042</v>
+        <v>18.07105139942551</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>33.92246626185713</v>
+        <v>33.92246626191818</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>38.59681510272785</v>
+        <v>38.59681510267999</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>6.145984716407362</v>
+        <v>6.145984716442491</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>34.39947842455215</v>
+        <v>34.39947842456056</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>40.21100243860437</v>
+        <v>40.21100243859494</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>18.04290556435874</v>
+        <v>18.04290556433305</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>27.5580826983231</v>
+        <v>27.55808269825341</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>31.84908280325576</v>
+        <v>31.84908280325337</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>25.59397097386543</v>
+        <v>25.59397097389283</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>32.98093920466565</v>
+        <v>32.98093920466713</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>36.02773293804191</v>
+        <v>36.02773293805397</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>37.4728402049527</v>
+        <v>37.47284020493064</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>43.53026999424342</v>
+        <v>43.53026999425058</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>45.64027398483845</v>
+        <v>45.64027398482242</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>26.93560422676612</v>
+        <v>26.93560422678932</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>42.78710616144847</v>
+        <v>42.78710616143585</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>47.46141535841216</v>
+        <v>47.46141535844752</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.98489272498794</v>
+        <v>29.98489272496463</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>31.42932955421734</v>
+        <v>31.42932955420211</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>37.48669116176664</v>
+        <v>37.48669116175254</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>39.59673118105705</v>
+        <v>39.59673118102737</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>20.89193654872609</v>
+        <v>20.89193654869278</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>36.74337828218209</v>
+        <v>36.74337828223927</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>41.41771631902859</v>
+        <v>41.41771631900915</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>8.966691004130531</v>
+        <v>8.966691004108931</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>37.22019017004161</v>
+        <v>37.22019016999455</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>43.03170123100163</v>
+        <v>43.03170123097411</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>20.86380916353151</v>
+        <v>20.86380916351798</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>30.37901733068734</v>
+        <v>30.37901733063095</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>34.67000512748573</v>
+        <v>34.67000512747141</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>28.41489009617349</v>
+        <v>28.41489009615939</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>35.80188456099993</v>
+        <v>35.80188456099481</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>38.84867141309028</v>
+        <v>38.8486714130971</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>40.29378634366933</v>
+        <v>40.2937863437006</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>46.35122190286095</v>
+        <v>46.35122190287414</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>48.46122257879777</v>
+        <v>48.46122257884142</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.7565172050465</v>
+        <v>29.75651720506026</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>45.608046009841</v>
+        <v>45.60804600985669</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>50.28234440205447</v>
+        <v>50.28234440206572</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>24.35109808431876</v>
+        <v>24.35109808429693</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>25.79546040430851</v>
+        <v>25.79546040429725</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>31.85279793383027</v>
+        <v>31.85279793388074</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>33.96285429929251</v>
+        <v>33.96285429932571</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>15.25814750402058</v>
+        <v>15.25814750404297</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>31.10950528820442</v>
+        <v>31.10950528821648</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>35.78388656941488</v>
+        <v>35.78388656940886</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>3.333394849013054</v>
+        <v>3.333394849043977</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>31.58680392685026</v>
+        <v>31.58680392688868</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>37.39835634652921</v>
+        <v>37.39835634654433</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>15.23012558832884</v>
+        <v>15.23012558832475</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>24.74526495789187</v>
+        <v>24.74526495785458</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>29.03629809968388</v>
+        <v>29.03629809968343</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>22.78112600609357</v>
+        <v>22.78112600608424</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>30.16806387925678</v>
+        <v>30.16806387928282</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>33.21488221258924</v>
+        <v>33.21488221261061</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>34.65992263783071</v>
+        <v>34.65992263783924</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>40.71733412018555</v>
+        <v>40.71733412018441</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>42.82735114209343</v>
+        <v>42.8273511421289</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>24.12273360202969</v>
+        <v>24.12273360204947</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>39.97417846051176</v>
+        <v>39.9741784604797</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>44.64852009687534</v>
+        <v>44.64852009686624</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>0.9283078581935129</v>
+        <v>0.9283078583243665</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.17948348020295</v>
+        <v>29.17948348022899</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>34.99086440382539</v>
+        <v>34.99086440385688</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>12.82549083181605</v>
+        <v>12.82549083181582</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>22.3385470026826</v>
+        <v>22.33854700279515</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>26.62951568815343</v>
+        <v>26.62951568812</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>20.37506684095477</v>
+        <v>20.37506684091088</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>27.76044396203699</v>
+        <v>27.76044396205507</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>30.8072948833976</v>
+        <v>30.80729488338554</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>32.25130857647853</v>
+        <v>32.25130857650263</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>38.3078943881528</v>
+        <v>38.30789438815314</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>40.41779369192225</v>
+        <v>40.41779369197977</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>21.71457669159086</v>
+        <v>21.71457669156755</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>37.56444282649634</v>
+        <v>37.56444282649134</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>42.23834916942869</v>
+        <v>42.23834916941903</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>6.915451459001908</v>
+        <v>6.915451459029761</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>35.16926795148638</v>
+        <v>35.16926795150014</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>40.98105881385525</v>
+        <v>40.98105881384547</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>18.8129097847303</v>
+        <v>18.81290978477123</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>28.32797992393476</v>
+        <v>28.327979923921</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>32.61912460964388</v>
+        <v>32.61912460966673</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>26.36381130228254</v>
+        <v>26.36381130229572</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>33.7506626122507</v>
+        <v>33.75066261227241</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>5.749022387666152</v>
+        <v>5.749022387663651</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>34.00041750256774</v>
+        <v>34.00041750250657</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>39.81179446782287</v>
+        <v>39.81179446772783</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>17.64664676833488</v>
+        <v>17.64664676837138</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>27.15982220197586</v>
+        <v>27.15982220202009</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>31.45077592316884</v>
+        <v>31.45077592319829</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>25.19632068543704</v>
+        <v>25.19632068547376</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>32.58179202471556</v>
+        <v>32.58179202470294</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>35.62863401475281</v>
+        <v>35.62863401472917</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>37.07274138870375</v>
+        <v>37.07274138870671</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>43.12937972538632</v>
+        <v>43.12937972539121</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>45.23927807192283</v>
+        <v>45.23927807194477</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>26.53588462181674</v>
+        <v>26.53588462182515</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>42.38590883278048</v>
+        <v>42.38590883276672</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>47.05980611342338</v>
+        <v>47.05980611343532</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>11.73673459425138</v>
+        <v>11.73673459426639</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>39.99077059535123</v>
+        <v>39.99077059531962</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>45.80255750070805</v>
+        <v>45.80255750078764</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>23.63463436556604</v>
+        <v>23.63463436551783</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>33.14982377886233</v>
+        <v>33.14982377887768</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>37.44095350091798</v>
+        <v>37.44095350088899</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>31.18563380506223</v>
+        <v>31.18563380506871</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>38.57257934020058</v>
+        <v>38.5725793402115</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>8.56945936188297</v>
+        <v>8.569459361933106</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>36.82085993542578</v>
+        <v>36.82085993541885</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>42.63222394822444</v>
+        <v>42.63222394819454</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>20.46728103675455</v>
+        <v>20.46728103673249</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.9804875058363</v>
+        <v>29.98048750577423</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>34.27142891836409</v>
+        <v>34.2714289183426</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>28.01697047680566</v>
+        <v>28.01697047677053</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>35.40246805095408</v>
+        <v>35.40246805095635</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>38.44930315910731</v>
+        <v>38.44930315907286</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>39.89341820491845</v>
+        <v>39.89341820499678</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>45.95006231239231</v>
+        <v>45.95006231237003</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>48.05995734455824</v>
+        <v>48.059957344597</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.35652827999591</v>
+        <v>29.35652828001023</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>45.20657936046198</v>
+        <v>45.20657936040241</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>49.88046583769719</v>
+        <v>49.88046583766695</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>14.55745008009612</v>
+        <v>14.55745008011306</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>42.81149153869203</v>
+        <v>42.81149153872182</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>48.62326549097427</v>
+        <v>48.62326549093243</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>26.45554716418165</v>
+        <v>26.45554716414515</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>35.97076761109063</v>
+        <v>35.9707676110987</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>40.2618850249522</v>
+        <v>40.26188502497869</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>34.00656212724844</v>
+        <v>34.00656212722092</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>41.39353389678227</v>
+        <v>41.39353389679091</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>2.936621799115166</v>
+        <v>2.936621799151659</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>31.1879322871125</v>
+        <v>31.18793228710215</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>36.99933765855631</v>
+        <v>36.99933765854801</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>14.83405608821224</v>
+        <v>14.83405608824305</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>24.34719375804148</v>
+        <v>24.34719375809605</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>28.63818051796759</v>
+        <v>28.63818051802307</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>22.38366501673941</v>
+        <v>22.38366501669802</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.76910599849746</v>
+        <v>29.76910599847165</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>32.8159725902327</v>
+        <v>32.81597259024873</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>34.26001312479011</v>
+        <v>34.26001312481524</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>40.31663315471597</v>
+        <v>40.31663315478861</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>42.426544533517</v>
+        <v>42.42654453359544</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>23.72320329990314</v>
+        <v>23.7232032999784</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>39.57317043470639</v>
+        <v>39.57317043481257</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>44.24710015632886</v>
+        <v>44.24710015634717</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>8.924046015384171</v>
+        <v>8.924046015392243</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>37.17799738423864</v>
+        <v>37.17799738423921</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>42.98981269697229</v>
+        <v>42.98981269696603</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>20.82175567556076</v>
+        <v>20.82175567554632</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>30.33690732186322</v>
+        <v>30.33690732187083</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>34.62807008392642</v>
+        <v>34.62807008395905</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>28.37269011955582</v>
+        <v>28.37269011946817</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>35.75960529561778</v>
+        <v>35.75960529558959</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>36.79761736444184</v>
+        <v>36.79761736449823</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>38.24223469248668</v>
+        <v>38.24223469251192</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>44.29968793179783</v>
+        <v>44.29968793181465</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>46.40975170991963</v>
+        <v>46.40975170994543</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>27.70482181380485</v>
+        <v>27.70482181383873</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>43.55654747359629</v>
+        <v>43.55654747358867</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>48.23093055982324</v>
+        <v>48.23093055983041</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>15.77670079587981</v>
+        <v>15.77670079593268</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>44.03033673109051</v>
+        <v>44.03033673111654</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>49.84198067581551</v>
+        <v>49.84198067581233</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>27.67477539826493</v>
+        <v>27.67477539827028</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>37.19016348420437</v>
+        <v>37.19016348422324</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>41.48126330069679</v>
+        <v>41.48126330070452</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>35.22589764074358</v>
+        <v>35.22589764070333</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>42.61300000710273</v>
+        <v>42.61300000706988</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>45.65988891008281</v>
+        <v>45.65988891006803</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>47.10518438253892</v>
+        <v>47.10518438257882</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>53.16271155969887</v>
+        <v>53.16271155971024</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>55.27273599419389</v>
+        <v>55.2727359942139</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>36.56789540853445</v>
+        <v>36.56789540853422</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>52.41970808877634</v>
+        <v>52.41970808877236</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>57.09405153531564</v>
+        <v>57.09405153531018</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>41.61952516187521</v>
+        <v>41.61952516189658</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>43.06423617473261</v>
+        <v>43.06423617476444</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>49.12174194318252</v>
+        <v>49.1217419432073</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>51.23180476420098</v>
+        <v>51.23180476418336</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>32.52669840563383</v>
+        <v>32.52669840557198</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>48.37858215317588</v>
+        <v>48.37858215319725</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>53.05295617854038</v>
+        <v>53.05295617849638</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>20.59806171618968</v>
+        <v>20.59806171614</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>48.85191715684935</v>
+        <v>48.85191715684628</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>54.66355714405902</v>
+        <v>54.66355714412803</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>32.49657776356342</v>
+        <v>32.49657776354375</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>42.01208512248625</v>
+        <v>42.01208512249716</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>46.30316997561849</v>
+        <v>46.30316997563066</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>40.04779793001658</v>
+        <v>40.04779792998759</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>47.43499452056685</v>
+        <v>47.43499452052502</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>50.48187449352324</v>
+        <v>50.48187449352199</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>51.92726364934808</v>
+        <v>51.92726364930557</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>57.98484335491649</v>
+        <v>57.98484335495105</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>60.09486683263786</v>
+        <v>60.09486683264127</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>41.38984978674976</v>
+        <v>41.38984978672531</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>57.24182055311903</v>
+        <v>57.24182055310983</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>61.91615493843208</v>
+        <v>61.9161549384314</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>44.44047283691928</v>
+        <v>44.44047283685641</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>45.88519151633259</v>
+        <v>45.88519151636306</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>51.94270305502389</v>
+        <v>51.94270305498956</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>54.0527625617086</v>
+        <v>54.05276256166756</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>35.34762058686963</v>
+        <v>35.34762058681427</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>51.19953120430839</v>
+        <v>51.19953120423654</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>55.87389442544222</v>
+        <v>55.87389442541323</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>23.41880503738501</v>
+        <v>23.41880503736568</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>51.67266593507677</v>
+        <v>51.67266593508507</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>57.48429296904906</v>
+        <v>57.4842929690054</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>35.31751839504373</v>
+        <v>35.31751839506203</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>44.83305678604811</v>
+        <v>44.83305678599081</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>49.12412933042717</v>
+        <v>49.1241293304274</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>42.86875408595515</v>
+        <v>42.86875408593639</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>50.25597690948425</v>
+        <v>50.25597690951302</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>53.30285000064303</v>
+        <v>53.30285000062063</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>54.74824682073561</v>
+        <v>54.74824682072833</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>60.80583229599163</v>
+        <v>60.80583229593342</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>62.91585245877966</v>
+        <v>62.91585245875385</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>44.21079979755584</v>
+        <v>44.21079979754595</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>60.06279743312221</v>
+        <v>60.06279743310743</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>64.7371210131964</v>
+        <v>64.73712101305532</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>38.80657571956474</v>
+        <v>38.80657571959623</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>40.25121988788644</v>
+        <v>40.25121988793544</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>46.30870734858727</v>
+        <v>46.30870734868493</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>48.41878320233943</v>
+        <v>48.41878320235831</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.71372906347356</v>
+        <v>29.71372906344309</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>45.56555573201863</v>
+        <v>45.56555573198373</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>50.2399621990995</v>
+        <v>50.23996219911781</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>17.78540641152595</v>
+        <v>17.78540641155153</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>46.03917722243134</v>
+        <v>46.03917722245806</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>51.85084561599249</v>
+        <v>51.85084561602614</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.68373234990279</v>
+        <v>29.68373234992178</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>39.19920194369988</v>
+        <v>39.19920194372262</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>43.49031983512268</v>
+        <v>43.49031983514087</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>37.2348875215225</v>
+        <v>37.23488752151545</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>44.62205375444487</v>
+        <v>44.62205375442293</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>47.66895832820806</v>
+        <v>47.66895832822306</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>49.11428064042432</v>
+        <v>49.11428064044967</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>55.17184203899146</v>
+        <v>55.17184203902796</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>57.28187854877851</v>
+        <v>57.28187854882615</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>38.57691372109512</v>
+        <v>38.57691372104532</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>54.4288274107133</v>
+        <v>54.4288274107523</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>59.10319423632072</v>
+        <v>59.10319423639701</v>
       </c>
     </row>
   </sheetData>
